--- a/XcomPerkManager/XComAbilityList.xlsx
+++ b/XcomPerkManager/XComAbilityList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$167</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1143">
   <si>
     <t>Name</t>
   </si>
@@ -2220,9 +2220,6 @@
     <t>Burst Shot</t>
   </si>
   <si>
-    <t>Fire a pistol shot that is more damaging than a regular shot, but has less range.</t>
-  </si>
-  <si>
     <t>F_Flush</t>
   </si>
   <si>
@@ -3390,10 +3387,67 @@
     <t>Enemies hit by your heavy weapons become ruptured. Rupture amount is based on secondary weapon tier.</t>
   </si>
   <si>
-    <t>F_RuptureWarheads</t>
-  </si>
-  <si>
     <t>Rupture Warheads (WIP)</t>
+  </si>
+  <si>
+    <t>Fire your sawed-off shotgun at a target.</t>
+  </si>
+  <si>
+    <t>F_SO_StandardShot</t>
+  </si>
+  <si>
+    <t>Fire Sawed-Off Shotgun (WIP)</t>
+  </si>
+  <si>
+    <t>F_SO_BothBarrels</t>
+  </si>
+  <si>
+    <t>Fire two shots from your sawed-off shotgun with one action.</t>
+  </si>
+  <si>
+    <t>Favid Weapons</t>
+  </si>
+  <si>
+    <t>Both Barrels (WIP)</t>
+  </si>
+  <si>
+    <t>F_SO_Fireworks</t>
+  </si>
+  <si>
+    <t>Activated ability. Enter an overwatch mode where you take shots with your sawed-off shotgun at any enemies that moves or acts within 4 tiles.</t>
+  </si>
+  <si>
+    <t>Fireworks (WIP)</t>
+  </si>
+  <si>
+    <t>F_SO_FastHands</t>
+  </si>
+  <si>
+    <t>Acquire the option to reload your sawed-off shotgun as a free action. Twice per mission</t>
+  </si>
+  <si>
+    <t>Fast Hands (WIP)</t>
+  </si>
+  <si>
+    <t>F_HW_Payload</t>
+  </si>
+  <si>
+    <t>Payload (WIP)</t>
+  </si>
+  <si>
+    <t>If equiped with a Heavy Weapon Attachment and Heavy Armor, gain a bonus Heavy Weapon use.</t>
+  </si>
+  <si>
+    <t>F_MP_StandardShot</t>
+  </si>
+  <si>
+    <t>Fire Machine Pistol (WIP)</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>F_HW_RuptureWarheads</t>
   </si>
 </sst>
 </file>
@@ -3738,16 +3792,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O402"/>
+  <dimension ref="A1:O408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -3900,13 +3954,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" t="s">
         <v>739</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>740</v>
-      </c>
-      <c r="C9" t="s">
-        <v>741</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -4002,13 +4056,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
         <v>614</v>
       </c>
       <c r="C15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -4019,13 +4073,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
+        <v>747</v>
+      </c>
+      <c r="B16" t="s">
+        <v>746</v>
+      </c>
+      <c r="C16" t="s">
         <v>748</v>
-      </c>
-      <c r="B16" t="s">
-        <v>747</v>
-      </c>
-      <c r="C16" t="s">
-        <v>749</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -4056,7 +4110,7 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -4070,13 +4124,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B19" t="s">
         <v>1120</v>
       </c>
-      <c r="B19" t="s">
-        <v>1121</v>
-      </c>
       <c r="C19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -4087,13 +4141,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1123</v>
+        <v>1142</v>
       </c>
       <c r="B20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -4104,13 +4158,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>751</v>
+      </c>
+      <c r="B21" t="s">
         <v>752</v>
       </c>
-      <c r="B21" t="s">
-        <v>753</v>
-      </c>
       <c r="C21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -4155,13 +4209,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B24" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C24" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -4189,13 +4243,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>735</v>
+      </c>
+      <c r="B26" t="s">
         <v>736</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>737</v>
-      </c>
-      <c r="C26" t="s">
-        <v>738</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -4206,13 +4260,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B27" t="s">
         <v>1109</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1111</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -4240,13 +4294,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B29" t="s">
         <v>468</v>
       </c>
       <c r="C29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -4257,13 +4311,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>754</v>
+      </c>
+      <c r="B30" t="s">
         <v>755</v>
       </c>
-      <c r="B30" t="s">
-        <v>756</v>
-      </c>
       <c r="C30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -4297,7 +4351,7 @@
         <v>732</v>
       </c>
       <c r="C32" t="s">
-        <v>733</v>
+        <v>1123</v>
       </c>
       <c r="D32" t="s">
         <v>71</v>
@@ -4359,13 +4413,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B36" t="s">
         <v>1113</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>1114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1115</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -4379,10 +4433,10 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -4427,13 +4481,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>743</v>
+      </c>
+      <c r="B40" t="s">
         <v>744</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>745</v>
-      </c>
-      <c r="C40" t="s">
-        <v>746</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -4478,13 +4532,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B43" t="s">
         <v>1117</v>
       </c>
-      <c r="B43" t="s">
-        <v>1118</v>
-      </c>
       <c r="C43" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -4495,13 +4549,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B44" t="s">
         <v>1103</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>1104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1105</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -4529,132 +4583,132 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>898</v>
+        <v>1124</v>
       </c>
       <c r="B46" t="s">
-        <v>899</v>
+        <v>1125</v>
       </c>
       <c r="C46" t="s">
-        <v>900</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>6</v>
+        <v>1123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>887</v>
+        <v>1126</v>
       </c>
       <c r="B47" t="s">
-        <v>887</v>
+        <v>1129</v>
       </c>
       <c r="C47" t="s">
-        <v>888</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>6</v>
+        <v>1127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>908</v>
+        <v>1130</v>
       </c>
       <c r="B48" t="s">
-        <v>909</v>
+        <v>1132</v>
       </c>
       <c r="C48" t="s">
-        <v>910</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>6</v>
+        <v>1131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>885</v>
+        <v>1133</v>
       </c>
       <c r="B49" t="s">
-        <v>885</v>
+        <v>1135</v>
       </c>
       <c r="C49" t="s">
-        <v>886</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>82</v>
+        <v>1134</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>883</v>
+        <v>1136</v>
       </c>
       <c r="B50" t="s">
-        <v>883</v>
+        <v>1137</v>
       </c>
       <c r="C50" t="s">
-        <v>884</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
+        <v>1138</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>901</v>
+        <v>1139</v>
       </c>
       <c r="B51" t="s">
-        <v>902</v>
+        <v>1140</v>
       </c>
       <c r="C51" t="s">
-        <v>903</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>6</v>
+        <v>1141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="B52" t="s">
-        <v>627</v>
+        <v>898</v>
       </c>
       <c r="C52" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="B53" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="C53" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>6</v>
@@ -4665,16 +4719,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="B54" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="C54" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
         <v>186</v>
@@ -4682,13 +4736,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B55" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C55" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>82</v>
@@ -4699,13 +4753,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B56" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="C56" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>6</v>
@@ -4716,13 +4770,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="B57" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C57" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>6</v>
@@ -4733,33 +4787,33 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B58" t="s">
-        <v>889</v>
+        <v>627</v>
       </c>
       <c r="C58" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B59" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C59" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
         <v>186</v>
@@ -4767,577 +4821,577 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>523</v>
+        <v>895</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>895</v>
       </c>
       <c r="C60" t="s">
-        <v>1019</v>
+        <v>896</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>1026</v>
+      <c r="E60" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>998</v>
+        <v>890</v>
       </c>
       <c r="B61" t="s">
-        <v>999</v>
+        <v>891</v>
       </c>
       <c r="C61" t="s">
-        <v>1000</v>
+        <v>892</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>1026</v>
+      <c r="E61" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>992</v>
+        <v>893</v>
       </c>
       <c r="B62" t="s">
-        <v>993</v>
+        <v>893</v>
       </c>
       <c r="C62" t="s">
-        <v>994</v>
-      </c>
-      <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>1026</v>
+        <v>894</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>1023</v>
+        <v>910</v>
       </c>
       <c r="B63" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="C63" t="s">
-        <v>1025</v>
+        <v>912</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>1026</v>
+      <c r="E63" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>1014</v>
+        <v>888</v>
       </c>
       <c r="B64" t="s">
-        <v>602</v>
+        <v>888</v>
       </c>
       <c r="C64" t="s">
-        <v>1015</v>
+        <v>889</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>1026</v>
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>1020</v>
+        <v>905</v>
       </c>
       <c r="B65" t="s">
-        <v>1021</v>
+        <v>905</v>
       </c>
       <c r="C65" t="s">
-        <v>1022</v>
+        <v>906</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>1026</v>
+      <c r="E65" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>1006</v>
+        <v>523</v>
       </c>
       <c r="B66" t="s">
-        <v>1006</v>
+        <v>523</v>
       </c>
       <c r="C66" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B67" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="C67" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B68" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="C68" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>80</v>
+        <v>993</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B69" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="C69" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="B70" t="s">
-        <v>990</v>
+        <v>602</v>
       </c>
       <c r="C70" t="s">
-        <v>991</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
+        <v>1014</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>995</v>
+        <v>1019</v>
       </c>
       <c r="B71" t="s">
-        <v>996</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>997</v>
+        <v>1020</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1021</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B72" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C72" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B73" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C73" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="B74" t="s">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="C74" t="s">
-        <v>970</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
+        <v>1001</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>954</v>
+        <v>1015</v>
       </c>
       <c r="B75" t="s">
-        <v>336</v>
+        <v>1016</v>
       </c>
       <c r="C75" t="s">
-        <v>955</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
+        <v>1017</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B76" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C76" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="B77" t="s">
-        <v>978</v>
-      </c>
-      <c r="C77" t="s">
-        <v>979</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>995</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="B78" t="s">
-        <v>966</v>
+        <v>1008</v>
       </c>
       <c r="C78" t="s">
-        <v>967</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
+        <v>1009</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>971</v>
+        <v>1010</v>
       </c>
       <c r="B79" t="s">
-        <v>972</v>
+        <v>1011</v>
       </c>
       <c r="C79" t="s">
-        <v>973</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
+        <v>1012</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>988</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="B80" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="C80" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B81" t="s">
-        <v>960</v>
+        <v>336</v>
       </c>
       <c r="C81" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B82" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C82" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B83" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C83" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B84" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C84" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="B85" t="s">
-        <v>790</v>
+        <v>971</v>
       </c>
       <c r="C85" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B86" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C86" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>390</v>
+        <v>958</v>
       </c>
       <c r="B87" t="s">
-        <v>391</v>
+        <v>959</v>
       </c>
       <c r="C87" t="s">
-        <v>392</v>
+        <v>960</v>
       </c>
       <c r="D87" t="s">
         <v>80</v>
       </c>
-      <c r="E87" t="s">
-        <v>54</v>
+      <c r="E87" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>981</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>982</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>983</v>
       </c>
       <c r="D88" t="s">
         <v>82</v>
       </c>
-      <c r="E88" t="s">
-        <v>54</v>
+      <c r="E88" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>380</v>
+        <v>973</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>974</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>975</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E89" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>961</v>
       </c>
       <c r="B90" t="s">
-        <v>325</v>
+        <v>962</v>
       </c>
       <c r="C90" t="s">
-        <v>326</v>
+        <v>963</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
-      </c>
-      <c r="E90" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>385</v>
+        <v>979</v>
       </c>
       <c r="B91" t="s">
-        <v>385</v>
+        <v>789</v>
       </c>
       <c r="C91" t="s">
-        <v>386</v>
+        <v>980</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>393</v>
+        <v>955</v>
       </c>
       <c r="B92" t="s">
-        <v>394</v>
+        <v>956</v>
       </c>
       <c r="C92" t="s">
-        <v>395</v>
+        <v>957</v>
       </c>
       <c r="D92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E92" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>390</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="D93" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
         <v>54</v>
@@ -5345,13 +5399,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
         <v>82</v>
@@ -5362,16 +5416,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>381</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
         <v>54</v>
@@ -5379,13 +5433,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s">
         <v>82</v>
@@ -5396,16 +5450,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>385</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>386</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
         <v>54</v>
@@ -5413,16 +5467,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="C98" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E98" t="s">
         <v>54</v>
@@ -5430,16 +5484,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>349</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
@@ -5447,16 +5501,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>371</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E100" t="s">
         <v>54</v>
@@ -5464,16 +5518,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E101" t="s">
         <v>54</v>
@@ -5481,16 +5535,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="D102" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E102" t="s">
         <v>54</v>
@@ -5498,16 +5552,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E103" t="s">
         <v>54</v>
@@ -5515,16 +5569,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
         <v>54</v>
@@ -5532,13 +5586,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
@@ -5549,16 +5603,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E106" t="s">
         <v>54</v>
@@ -5566,16 +5620,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="D107" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s">
         <v>54</v>
@@ -5583,13 +5637,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C108" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -5600,16 +5654,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E109" t="s">
         <v>54</v>
@@ -5617,13 +5671,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D110" t="s">
         <v>82</v>
@@ -5634,13 +5688,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="B111" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="D111" t="s">
         <v>80</v>
@@ -5651,16 +5705,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="D112" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E112" t="s">
         <v>54</v>
@@ -5668,13 +5722,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C113" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
         <v>82</v>
@@ -5685,13 +5739,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>64</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>364</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -5702,13 +5756,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -5719,16 +5773,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="B116" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="C116" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="D116" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
         <v>54</v>
@@ -5736,13 +5790,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B117" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -5753,13 +5807,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>382</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>383</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>384</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -5770,16 +5824,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="B119" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="C119" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E119" t="s">
         <v>54</v>
@@ -5787,16 +5841,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>374</v>
+        <v>64</v>
       </c>
       <c r="B120" t="s">
-        <v>375</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E120" t="s">
         <v>54</v>
@@ -5804,16 +5858,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E121" t="s">
         <v>54</v>
@@ -5821,13 +5875,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>355</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -5838,13 +5892,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="B123" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="C123" t="s">
-        <v>379</v>
+        <v>160</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -5855,16 +5909,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="D124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E124" t="s">
         <v>54</v>
@@ -5872,13 +5926,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B125" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="C125" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -5889,16 +5943,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="D126" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E126" t="s">
         <v>54</v>
@@ -5906,13 +5960,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="D127" t="s">
         <v>71</v>
@@ -5923,16 +5977,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>387</v>
+        <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
-        <v>389</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
         <v>54</v>
@@ -5940,13 +5994,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B129" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -5957,13 +6011,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="D130" t="s">
         <v>82</v>
@@ -5974,16 +6028,16 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="B131" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E131" t="s">
         <v>54</v>
@@ -5991,16 +6045,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E132" t="s">
         <v>54</v>
@@ -6008,16 +6062,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="D133" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E133" t="s">
         <v>54</v>
@@ -6025,16 +6079,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
       <c r="C134" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="D134" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E134" t="s">
         <v>54</v>
@@ -6042,16 +6096,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="B135" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="D135" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E135" t="s">
         <v>54</v>
@@ -6059,13 +6113,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="B136" t="s">
-        <v>317</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>82</v>
@@ -6076,13 +6130,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="B137" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="D137" t="s">
         <v>82</v>
@@ -6093,16 +6147,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D138" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E138" t="s">
         <v>54</v>
@@ -6110,16 +6164,16 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="D139" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E139" t="s">
         <v>54</v>
@@ -6127,16 +6181,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="D140" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E140" t="s">
         <v>54</v>
@@ -6144,16 +6198,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="B141" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="C141" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="D141" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E141" t="s">
         <v>54</v>
@@ -6161,16 +6215,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C142" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E142" t="s">
         <v>54</v>
@@ -6178,16 +6232,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
         <v>54</v>
@@ -6195,16 +6249,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E144" t="s">
         <v>54</v>
@@ -6212,16 +6266,16 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="B145" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="C145" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="D145" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E145" t="s">
         <v>54</v>
@@ -6229,16 +6283,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D146" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E146" t="s">
         <v>54</v>
@@ -6246,13 +6300,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="B147" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="C147" t="s">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="D147" t="s">
         <v>80</v>
@@ -6263,16 +6317,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="C148" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="D148" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E148" t="s">
         <v>54</v>
@@ -6280,16 +6334,16 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="D149" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
         <v>54</v>
@@ -6297,16 +6351,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>402</v>
+        <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E150" t="s">
         <v>54</v>
@@ -6314,13 +6368,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B151" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C151" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D151" t="s">
         <v>80</v>
@@ -6331,16 +6385,16 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B152" t="s">
-        <v>339</v>
+        <v>195</v>
       </c>
       <c r="C152" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D152" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E152" t="s">
         <v>54</v>
@@ -6348,16 +6402,16 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B153" t="s">
-        <v>409</v>
+        <v>73</v>
       </c>
       <c r="C153" t="s">
-        <v>410</v>
+        <v>86</v>
       </c>
       <c r="D153" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E153" t="s">
         <v>54</v>
@@ -6365,16 +6419,16 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E154" t="s">
         <v>54</v>
@@ -6382,16 +6436,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="B155" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E155" t="s">
         <v>54</v>
@@ -6399,16 +6453,16 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="D156" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E156" t="s">
         <v>54</v>
@@ -6416,16 +6470,16 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="D157" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E157" t="s">
         <v>54</v>
@@ -6433,16 +6487,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="D158" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E158" t="s">
         <v>54</v>
@@ -6450,16 +6504,16 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>270</v>
+        <v>408</v>
       </c>
       <c r="B159" t="s">
-        <v>271</v>
+        <v>409</v>
       </c>
       <c r="C159" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E159" t="s">
         <v>54</v>
@@ -6467,13 +6521,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="C160" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="D160" t="s">
         <v>82</v>
@@ -6484,16 +6538,16 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C161" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E161" t="s">
         <v>54</v>
@@ -6501,13 +6555,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
         <v>82</v>
@@ -6518,16 +6572,16 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="C163" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="D163" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E163" t="s">
         <v>54</v>
@@ -6535,880 +6589,880 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>872</v>
+        <v>66</v>
       </c>
       <c r="B164" t="s">
-        <v>873</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>874</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>880</v>
+        <v>71</v>
+      </c>
+      <c r="E164" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>869</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
-        <v>870</v>
+        <v>271</v>
       </c>
       <c r="C165" t="s">
-        <v>871</v>
+        <v>272</v>
       </c>
       <c r="D165" t="s">
-        <v>71</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>880</v>
+        <v>80</v>
+      </c>
+      <c r="E165" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>849</v>
+        <v>291</v>
       </c>
       <c r="B166" t="s">
-        <v>850</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>880</v>
+        <v>292</v>
+      </c>
+      <c r="C166" t="s">
+        <v>293</v>
+      </c>
+      <c r="D166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E166" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>857</v>
+        <v>341</v>
       </c>
       <c r="B167" t="s">
-        <v>858</v>
+        <v>341</v>
       </c>
       <c r="C167" t="s">
-        <v>859</v>
-      </c>
-      <c r="D167" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D167" t="s">
         <v>71</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>880</v>
+      <c r="E167" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>875</v>
+        <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>876</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>877</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>880</v>
+        <v>82</v>
+      </c>
+      <c r="E168" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>878</v>
+        <v>276</v>
       </c>
       <c r="B169" t="s">
-        <v>878</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>880</v>
+        <v>277</v>
+      </c>
+      <c r="C169" t="s">
+        <v>278</v>
+      </c>
+      <c r="D169" t="s">
+        <v>80</v>
+      </c>
+      <c r="E169" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="B170" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="C170" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="B171" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="C171" t="s">
-        <v>856</v>
-      </c>
-      <c r="D171" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D171" t="s">
         <v>71</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B172" t="s">
-        <v>853</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>854</v>
+        <v>849</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>850</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B173" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C173" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="B174" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="C174" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="D174" t="s">
         <v>6</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>1043</v>
+        <v>877</v>
       </c>
       <c r="B175" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1044</v>
+        <v>877</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>878</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>1068</v>
+        <v>879</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>1039</v>
+        <v>862</v>
       </c>
       <c r="B176" t="s">
-        <v>705</v>
+        <v>863</v>
       </c>
       <c r="C176" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>82</v>
+        <v>864</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>1068</v>
+        <v>879</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>1064</v>
+        <v>854</v>
       </c>
       <c r="B177" t="s">
-        <v>1065</v>
+        <v>854</v>
       </c>
       <c r="C177" t="s">
-        <v>1066</v>
+        <v>855</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>1068</v>
+        <v>879</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>1033</v>
+        <v>851</v>
       </c>
       <c r="B178" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1035</v>
+        <v>852</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>853</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>1068</v>
+        <v>879</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>1061</v>
+        <v>859</v>
       </c>
       <c r="B179" t="s">
-        <v>1062</v>
+        <v>860</v>
       </c>
       <c r="C179" t="s">
-        <v>1063</v>
+        <v>861</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>1068</v>
+        <v>879</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>1055</v>
+        <v>865</v>
       </c>
       <c r="B180" t="s">
-        <v>1056</v>
+        <v>866</v>
       </c>
       <c r="C180" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>82</v>
+        <v>867</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>1068</v>
+        <v>879</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>756</v>
+        <v>1042</v>
       </c>
       <c r="B181" t="s">
-        <v>756</v>
+        <v>1042</v>
       </c>
       <c r="C181" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="B182" t="s">
-        <v>1059</v>
+        <v>705</v>
       </c>
       <c r="C182" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>1027</v>
+        <v>1063</v>
       </c>
       <c r="B183" t="s">
-        <v>1028</v>
+        <v>1064</v>
       </c>
       <c r="C183" t="s">
-        <v>1029</v>
+        <v>1065</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="B184" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="C184" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>459</v>
+        <v>1060</v>
       </c>
       <c r="B185" t="s">
-        <v>459</v>
+        <v>1061</v>
       </c>
       <c r="C185" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>1067</v>
-      </c>
-      <c r="D185" t="s">
-        <v>71</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>1030</v>
+        <v>1054</v>
       </c>
       <c r="B186" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
       <c r="C186" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>1045</v>
+        <v>755</v>
       </c>
       <c r="B187" t="s">
-        <v>1045</v>
+        <v>755</v>
       </c>
       <c r="C187" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>1036</v>
+        <v>1057</v>
       </c>
       <c r="B188" t="s">
-        <v>1037</v>
+        <v>1058</v>
       </c>
       <c r="C188" t="s">
-        <v>1038</v>
+        <v>1059</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>1052</v>
+        <v>1026</v>
       </c>
       <c r="B189" t="s">
-        <v>1053</v>
+        <v>1027</v>
       </c>
       <c r="C189" t="s">
-        <v>1054</v>
+        <v>1028</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>677</v>
+        <v>1049</v>
       </c>
       <c r="B190" t="s">
-        <v>677</v>
+        <v>1049</v>
       </c>
       <c r="C190" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>1047</v>
+        <v>459</v>
       </c>
       <c r="B191" t="s">
-        <v>1048</v>
+        <v>459</v>
       </c>
       <c r="C191" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>6</v>
+        <v>1066</v>
+      </c>
+      <c r="D191" t="s">
+        <v>71</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>781</v>
+        <v>1029</v>
       </c>
       <c r="B192" t="s">
-        <v>783</v>
+        <v>1030</v>
       </c>
       <c r="C192" t="s">
-        <v>782</v>
-      </c>
-      <c r="D192" t="s">
-        <v>80</v>
-      </c>
-      <c r="E192" t="s">
-        <v>806</v>
+        <v>1031</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>784</v>
+        <v>1044</v>
       </c>
       <c r="B193" t="s">
-        <v>785</v>
+        <v>1044</v>
       </c>
       <c r="C193" t="s">
-        <v>786</v>
-      </c>
-      <c r="D193" t="s">
-        <v>80</v>
-      </c>
-      <c r="E193" t="s">
-        <v>806</v>
+        <v>1045</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>798</v>
+        <v>1035</v>
       </c>
       <c r="B194" t="s">
-        <v>432</v>
+        <v>1036</v>
       </c>
       <c r="C194" t="s">
-        <v>799</v>
-      </c>
-      <c r="D194" t="s">
-        <v>80</v>
-      </c>
-      <c r="E194" t="s">
-        <v>806</v>
+        <v>1037</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>772</v>
+        <v>1051</v>
       </c>
       <c r="B195" t="s">
-        <v>773</v>
+        <v>1052</v>
       </c>
       <c r="C195" t="s">
-        <v>774</v>
-      </c>
-      <c r="D195" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E195" t="s">
-        <v>806</v>
+      <c r="E195" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>787</v>
+        <v>677</v>
       </c>
       <c r="B196" t="s">
-        <v>740</v>
+        <v>677</v>
       </c>
       <c r="C196" t="s">
-        <v>788</v>
-      </c>
-      <c r="D196" t="s">
-        <v>80</v>
-      </c>
-      <c r="E196" t="s">
-        <v>806</v>
+        <v>1041</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>775</v>
+        <v>1046</v>
       </c>
       <c r="B197" t="s">
-        <v>776</v>
+        <v>1047</v>
       </c>
       <c r="C197" t="s">
-        <v>777</v>
-      </c>
-      <c r="D197" t="s">
-        <v>71</v>
-      </c>
-      <c r="E197" t="s">
-        <v>806</v>
+        <v>1048</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="B198" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="C198" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
       </c>
       <c r="E198" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B199" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C199" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D199" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E199" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="B200" t="s">
-        <v>758</v>
+        <v>432</v>
       </c>
       <c r="C200" t="s">
-        <v>759</v>
+        <v>798</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
       </c>
       <c r="E200" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="B201" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="C201" t="s">
+        <v>773</v>
+      </c>
+      <c r="D201" t="s">
+        <v>80</v>
+      </c>
+      <c r="E201" t="s">
         <v>805</v>
-      </c>
-      <c r="D201" t="s">
-        <v>82</v>
-      </c>
-      <c r="E201" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="B202" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="C202" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="D202" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E202" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="B203" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="C203" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="D203" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E203" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="B204" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="C204" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
       </c>
       <c r="E204" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B205" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C205" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D205" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E205" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B206" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="C206" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
       </c>
       <c r="E206" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="B207" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="C207" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="D207" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E207" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B208" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C208" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D208" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E208" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>175</v>
+        <v>799</v>
       </c>
       <c r="B209" t="s">
-        <v>176</v>
+        <v>800</v>
       </c>
       <c r="C209" t="s">
-        <v>204</v>
+        <v>801</v>
       </c>
       <c r="D209" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E209" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>157</v>
+        <v>794</v>
       </c>
       <c r="B210" t="s">
-        <v>158</v>
+        <v>795</v>
       </c>
       <c r="C210" t="s">
-        <v>159</v>
+        <v>796</v>
       </c>
       <c r="D210" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E210" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>788</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
+        <v>789</v>
       </c>
       <c r="C211" t="s">
-        <v>44</v>
+        <v>790</v>
       </c>
       <c r="D211" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E211" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>45</v>
+        <v>765</v>
       </c>
       <c r="B212" t="s">
-        <v>45</v>
+        <v>766</v>
       </c>
       <c r="C212" t="s">
-        <v>46</v>
+        <v>767</v>
       </c>
       <c r="D212" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E212" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>137</v>
+        <v>777</v>
       </c>
       <c r="B213" t="s">
-        <v>138</v>
+        <v>778</v>
       </c>
       <c r="C213" t="s">
-        <v>160</v>
+        <v>779</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
       </c>
       <c r="E213" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>155</v>
+        <v>768</v>
       </c>
       <c r="B214" t="s">
-        <v>156</v>
+        <v>769</v>
       </c>
       <c r="C214" t="s">
-        <v>171</v>
+        <v>770</v>
       </c>
       <c r="D214" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E214" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B215" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D215" t="s">
         <v>71</v>
@@ -7419,16 +7473,16 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B216" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C216" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D216" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E216" t="s">
         <v>6</v>
@@ -7436,13 +7490,13 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="B217" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="C217" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="D217" t="s">
         <v>71</v>
@@ -7453,16 +7507,16 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="C218" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="D218" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E218" t="s">
         <v>6</v>
@@ -7470,16 +7524,16 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="B219" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="C219" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="D219" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E219" t="s">
         <v>6</v>
@@ -7487,13 +7541,13 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="B220" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C220" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="D220" t="s">
         <v>82</v>
@@ -7504,16 +7558,16 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="B221" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="C221" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="D221" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E221" t="s">
         <v>6</v>
@@ -7521,16 +7575,16 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C222" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="D222" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
@@ -7538,16 +7592,16 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B223" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C223" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D223" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E223" t="s">
         <v>6</v>
@@ -7555,16 +7609,16 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="B224" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="D224" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E224" t="s">
         <v>6</v>
@@ -7572,16 +7626,16 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B225" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C225" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D225" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E225" t="s">
         <v>6</v>
@@ -7589,16 +7643,16 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B226" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C226" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D226" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E226" t="s">
         <v>6</v>
@@ -7606,16 +7660,16 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B227" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C227" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D227" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E227" t="s">
         <v>6</v>
@@ -7623,16 +7677,16 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="B228" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="C228" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="D228" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E228" t="s">
         <v>6</v>
@@ -7640,16 +7694,16 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="C229" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="D229" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E229" t="s">
         <v>6</v>
@@ -7657,13 +7711,13 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D230" t="s">
         <v>71</v>
@@ -7674,16 +7728,16 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="B231" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C231" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="D231" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E231" t="s">
         <v>6</v>
@@ -7691,13 +7745,13 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B232" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="C232" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D232" t="s">
         <v>71</v>
@@ -7708,16 +7762,16 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B233" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C233" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D233" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E233" t="s">
         <v>6</v>
@@ -7725,13 +7779,13 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="B234" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="C234" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D234" t="s">
         <v>80</v>
@@ -7742,16 +7796,16 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="B235" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="C235" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="D235" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E235" t="s">
         <v>6</v>
@@ -7759,16 +7813,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="B236" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="D236" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E236" t="s">
         <v>6</v>
@@ -7776,16 +7830,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B237" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="C237" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E237" t="s">
         <v>6</v>
@@ -7793,13 +7847,13 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B238" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="C238" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D238" t="s">
         <v>71</v>
@@ -7810,16 +7864,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="B239" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="C239" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="D239" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E239" t="s">
         <v>6</v>
@@ -7827,16 +7881,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B240" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C240" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D240" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E240" t="s">
         <v>6</v>
@@ -7844,16 +7898,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B241" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C241" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="D241" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E241" t="s">
         <v>6</v>
@@ -7861,13 +7915,13 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B242" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C242" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D242" t="s">
         <v>82</v>
@@ -7878,16 +7932,16 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B243" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C243" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="D243" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E243" t="s">
         <v>6</v>
@@ -7895,13 +7949,13 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="B244" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="C244" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D244" t="s">
         <v>71</v>
@@ -7912,16 +7966,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="C245" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="D245" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E245" t="s">
         <v>6</v>
@@ -7929,13 +7983,13 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B246" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C246" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D246" t="s">
         <v>82</v>
@@ -7946,13 +8000,13 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B247" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C247" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D247" t="s">
         <v>71</v>
@@ -7963,16 +8017,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="B248" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="C248" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="D248" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E248" t="s">
         <v>6</v>
@@ -7980,16 +8034,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B249" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C249" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="D249" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E249" t="s">
         <v>6</v>
@@ -7997,13 +8051,13 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B250" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C250" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D250" t="s">
         <v>71</v>
@@ -8014,16 +8068,16 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E251" t="s">
         <v>6</v>
@@ -8031,16 +8085,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B252" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C252" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D252" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E252" t="s">
         <v>6</v>
@@ -8048,16 +8102,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="B253" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="C253" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="D253" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E253" t="s">
         <v>6</v>
@@ -8065,13 +8119,13 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="B254" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="C254" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="D254" t="s">
         <v>71</v>
@@ -8082,16 +8136,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="B255" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="C255" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="D255" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E255" t="s">
         <v>6</v>
@@ -8099,13 +8153,13 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B256" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C256" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D256" t="s">
         <v>71</v>
@@ -8116,13 +8170,13 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="B257" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C257" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D257" t="s">
         <v>71</v>
@@ -8133,16 +8187,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="B258" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C258" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E258" t="s">
         <v>6</v>
@@ -8150,16 +8204,16 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B259" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="C259" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="D259" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E259" t="s">
         <v>6</v>
@@ -8167,16 +8221,16 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="B260" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="C260" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="D260" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E260" t="s">
         <v>6</v>
@@ -8184,13 +8238,13 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B261" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C261" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D261" t="s">
         <v>71</v>
@@ -8201,13 +8255,13 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="B262" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="C262" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="D262" t="s">
         <v>71</v>
@@ -8218,16 +8272,16 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B263" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C263" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D263" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E263" t="s">
         <v>6</v>
@@ -8235,16 +8289,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C264" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D264" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E264" t="s">
         <v>6</v>
@@ -8252,13 +8306,13 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="B265" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C265" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D265" t="s">
         <v>80</v>
@@ -8269,13 +8323,13 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B266" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C266" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D266" t="s">
         <v>82</v>
@@ -8286,16 +8340,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B267" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C267" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D267" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E267" t="s">
         <v>6</v>
@@ -8303,13 +8357,13 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B268" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C268" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D268" t="s">
         <v>71</v>
@@ -8320,16 +8374,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B269" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C269" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D269" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E269" t="s">
         <v>6</v>
@@ -8337,16 +8391,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="B270" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="C270" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="D270" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E270" t="s">
         <v>6</v>
@@ -8354,16 +8408,16 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B271" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C271" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D271" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E271" t="s">
         <v>6</v>
@@ -8371,16 +8425,16 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="B272" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="C272" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="D272" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E272" t="s">
         <v>6</v>
@@ -8388,16 +8442,16 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="B273" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="C273" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="D273" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E273" t="s">
         <v>6</v>
@@ -8405,16 +8459,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="B274" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="C274" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E274" t="s">
         <v>6</v>
@@ -8422,16 +8476,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="B275" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="C275" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E275" t="s">
         <v>6</v>
@@ -8439,16 +8493,16 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="B276" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="C276" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="D276" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E276" t="s">
         <v>6</v>
@@ -8456,16 +8510,16 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B277" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="C277" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="D277" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E277" t="s">
         <v>6</v>
@@ -8473,13 +8527,13 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="B278" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="C278" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="D278" t="s">
         <v>71</v>
@@ -8490,16 +8544,16 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B279" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="C279" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D279" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E279" t="s">
         <v>6</v>
@@ -8507,13 +8561,13 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B280" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C280" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="D280" t="s">
         <v>6</v>
@@ -8524,16 +8578,16 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="B281" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="C281" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="D281" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E281" t="s">
         <v>6</v>
@@ -8541,16 +8595,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B282" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C282" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D282" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E282" t="s">
         <v>6</v>
@@ -8558,353 +8612,353 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>810</v>
+        <v>227</v>
       </c>
       <c r="B283" t="s">
-        <v>811</v>
+        <v>227</v>
       </c>
       <c r="C283" t="s">
-        <v>812</v>
+        <v>243</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E283" t="s">
-        <v>848</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>840</v>
+        <v>69</v>
       </c>
       <c r="B284" t="s">
-        <v>841</v>
+        <v>41</v>
       </c>
       <c r="C284" t="s">
-        <v>842</v>
+        <v>70</v>
       </c>
       <c r="D284" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E284" t="s">
-        <v>848</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>819</v>
+        <v>191</v>
       </c>
       <c r="B285" t="s">
-        <v>821</v>
+        <v>192</v>
       </c>
       <c r="C285" t="s">
-        <v>820</v>
+        <v>208</v>
       </c>
       <c r="D285" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E285" t="s">
-        <v>848</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>822</v>
+        <v>51</v>
       </c>
       <c r="B286" t="s">
-        <v>824</v>
+        <v>51</v>
       </c>
       <c r="C286" t="s">
-        <v>823</v>
+        <v>52</v>
       </c>
       <c r="D286" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E286" t="s">
-        <v>848</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>828</v>
+        <v>234</v>
       </c>
       <c r="B287" t="s">
-        <v>829</v>
+        <v>235</v>
       </c>
       <c r="C287" t="s">
-        <v>830</v>
+        <v>249</v>
       </c>
       <c r="D287" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E287" t="s">
-        <v>848</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>807</v>
+        <v>146</v>
       </c>
       <c r="B288" t="s">
-        <v>808</v>
+        <v>147</v>
       </c>
       <c r="C288" t="s">
-        <v>809</v>
+        <v>165</v>
       </c>
       <c r="D288" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E288" t="s">
-        <v>848</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B289" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C289" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D289" t="s">
         <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="B290" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C290" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="D290" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E290" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B291" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C291" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D291" t="s">
         <v>82</v>
       </c>
       <c r="E291" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="B292" t="s">
-        <v>99</v>
+        <v>823</v>
       </c>
       <c r="C292" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="D292" t="s">
         <v>82</v>
       </c>
       <c r="E292" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B293" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C293" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D293" t="s">
         <v>82</v>
       </c>
       <c r="E293" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="B294" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="C294" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="D294" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E294" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="B295" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="C295" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="D295" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E295" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="B296" t="s">
-        <v>846</v>
-      </c>
-      <c r="C296" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C296" t="s">
+        <v>816</v>
+      </c>
+      <c r="D296" t="s">
+        <v>82</v>
+      </c>
+      <c r="E296" t="s">
         <v>847</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>473</v>
+        <v>824</v>
       </c>
       <c r="B297" t="s">
-        <v>474</v>
+        <v>825</v>
       </c>
       <c r="C297" t="s">
-        <v>475</v>
+        <v>826</v>
       </c>
       <c r="D297" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E297" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>416</v>
+        <v>842</v>
       </c>
       <c r="B298" t="s">
-        <v>417</v>
+        <v>99</v>
       </c>
       <c r="C298" t="s">
-        <v>418</v>
+        <v>843</v>
       </c>
       <c r="D298" t="s">
         <v>82</v>
       </c>
       <c r="E298" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>440</v>
+        <v>836</v>
       </c>
       <c r="B299" t="s">
-        <v>441</v>
+        <v>837</v>
       </c>
       <c r="C299" t="s">
-        <v>442</v>
+        <v>838</v>
       </c>
       <c r="D299" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E299" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>431</v>
+        <v>830</v>
       </c>
       <c r="B300" t="s">
-        <v>432</v>
+        <v>831</v>
       </c>
       <c r="C300" t="s">
-        <v>433</v>
+        <v>832</v>
       </c>
       <c r="D300" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E300" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>455</v>
+        <v>833</v>
       </c>
       <c r="B301" t="s">
-        <v>456</v>
+        <v>834</v>
       </c>
       <c r="C301" t="s">
-        <v>457</v>
+        <v>835</v>
       </c>
       <c r="D301" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E301" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>437</v>
+        <v>844</v>
       </c>
       <c r="B302" t="s">
-        <v>438</v>
-      </c>
-      <c r="C302" t="s">
-        <v>439</v>
-      </c>
-      <c r="D302" t="s">
+        <v>845</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D302" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E302" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C303" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D303" t="s">
         <v>6</v>
@@ -8915,16 +8969,16 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B304" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C304" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D304" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E304" t="s">
         <v>479</v>
@@ -8932,13 +8986,13 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="B305" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="C305" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="D305" t="s">
         <v>6</v>
@@ -8949,16 +9003,16 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B306" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C306" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D306" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E306" t="s">
         <v>479</v>
@@ -8966,13 +9020,13 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B307" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C307" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D307" t="s">
         <v>6</v>
@@ -8983,16 +9037,16 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B308" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C308" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D308" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E308" t="s">
         <v>479</v>
@@ -9000,13 +9054,13 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="B309" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="C309" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="D309" t="s">
         <v>6</v>
@@ -9017,13 +9071,13 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="B310" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C310" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="D310" t="s">
         <v>6</v>
@@ -9034,13 +9088,13 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="B311" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C311" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="D311" t="s">
         <v>6</v>
@@ -9051,16 +9105,16 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="B312" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="C312" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="D312" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E312" t="s">
         <v>479</v>
@@ -9068,13 +9122,13 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B313" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C313" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D313" t="s">
         <v>6</v>
@@ -9085,16 +9139,16 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B314" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C314" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D314" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E314" t="s">
         <v>479</v>
@@ -9102,13 +9156,13 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B315" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C315" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D315" t="s">
         <v>6</v>
@@ -9119,13 +9173,13 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B316" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C316" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D316" t="s">
         <v>6</v>
@@ -9136,16 +9190,16 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="B317" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="C317" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="D317" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E317" t="s">
         <v>479</v>
@@ -9153,16 +9207,16 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="B318" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="C318" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="D318" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E318" t="s">
         <v>479</v>
@@ -9170,118 +9224,118 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="B319" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="C319" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="D319" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E319" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>522</v>
+        <v>425</v>
       </c>
       <c r="B320" t="s">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="C320" t="s">
-        <v>524</v>
+        <v>427</v>
       </c>
       <c r="D320" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="B321" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="C321" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="D321" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E321" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="B322" t="s">
-        <v>544</v>
+        <v>471</v>
       </c>
       <c r="C322" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="D322" t="s">
         <v>6</v>
       </c>
       <c r="E322" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="B323" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="C323" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="D323" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E323" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="B324" t="s">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="C324" t="s">
-        <v>491</v>
+        <v>415</v>
       </c>
       <c r="D324" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E324" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B325" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C325" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D325" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E325" t="s">
         <v>546</v>
@@ -9289,16 +9343,16 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B326" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C326" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D326" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E326" t="s">
         <v>546</v>
@@ -9306,16 +9360,16 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="B327" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="C327" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="D327" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E327" t="s">
         <v>546</v>
@@ -9323,16 +9377,16 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="B328" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="C328" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="D328" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E328" t="s">
         <v>546</v>
@@ -9340,16 +9394,16 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B329" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C329" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D329" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E329" t="s">
         <v>546</v>
@@ -9357,13 +9411,13 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="B330" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="C330" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="D330" t="s">
         <v>6</v>
@@ -9374,13 +9428,13 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B331" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C331" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D331" t="s">
         <v>6</v>
@@ -9391,13 +9445,13 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B332" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C332" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
@@ -9408,13 +9462,13 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B333" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C333" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D333" t="s">
         <v>6</v>
@@ -9425,13 +9479,13 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B334" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C334" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="D334" t="s">
         <v>71</v>
@@ -9442,13 +9496,13 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B335" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C335" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D335" t="s">
         <v>71</v>
@@ -9459,13 +9513,13 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="B336" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="C336" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="D336" t="s">
         <v>6</v>
@@ -9476,16 +9530,16 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B337" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C337" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D337" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E337" t="s">
         <v>546</v>
@@ -9493,16 +9547,16 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B338" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C338" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D338" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E338" t="s">
         <v>546</v>
@@ -9510,16 +9564,16 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B339" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C339" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D339" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E339" t="s">
         <v>546</v>
@@ -9527,16 +9581,16 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="B340" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="C340" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="D340" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E340" t="s">
         <v>546</v>
@@ -9544,115 +9598,115 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>559</v>
+        <v>498</v>
       </c>
       <c r="B341" t="s">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="C341" t="s">
-        <v>561</v>
+        <v>500</v>
       </c>
       <c r="D341" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E341" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>571</v>
+        <v>513</v>
       </c>
       <c r="B342" t="s">
-        <v>572</v>
+        <v>514</v>
       </c>
       <c r="C342" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="D342" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E342" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>580</v>
+        <v>492</v>
       </c>
       <c r="B343" t="s">
-        <v>581</v>
+        <v>493</v>
       </c>
       <c r="C343" t="s">
-        <v>582</v>
+        <v>494</v>
       </c>
       <c r="D343" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E343" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>586</v>
+        <v>531</v>
       </c>
       <c r="B344" t="s">
-        <v>24</v>
+        <v>533</v>
       </c>
       <c r="C344" t="s">
-        <v>587</v>
+        <v>532</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E344" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="B345" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="C345" t="s">
-        <v>564</v>
+        <v>521</v>
       </c>
       <c r="D345" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E345" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="B346" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C346" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="D346" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E346" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B347" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C347" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D347" t="s">
         <v>6</v>
@@ -9663,16 +9717,16 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B348" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="C348" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="D348" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E348" t="s">
         <v>594</v>
@@ -9680,16 +9734,16 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B349" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C349" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D349" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E349" t="s">
         <v>594</v>
@@ -9697,13 +9751,13 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="B350" t="s">
-        <v>554</v>
+        <v>24</v>
       </c>
       <c r="C350" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D350" t="s">
         <v>6</v>
@@ -9714,13 +9768,13 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="B351" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C351" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="D351" t="s">
         <v>82</v>
@@ -9731,16 +9785,16 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B352" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="C352" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D352" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E352" t="s">
         <v>594</v>
@@ -9748,13 +9802,13 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B353" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C353" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D353" t="s">
         <v>6</v>
@@ -9765,13 +9819,13 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B354" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C354" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D354" t="s">
         <v>6</v>
@@ -9782,16 +9836,16 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C355" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D355" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E355" t="s">
         <v>594</v>
@@ -9799,16 +9853,16 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B356" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C356" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D356" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E356" t="s">
         <v>594</v>
@@ -9816,118 +9870,118 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="B357" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="C357" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="D357" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E357" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>646</v>
+        <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>647</v>
+        <v>566</v>
       </c>
       <c r="C358" t="s">
-        <v>648</v>
+        <v>567</v>
       </c>
       <c r="D358" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E358" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>643</v>
+        <v>556</v>
       </c>
       <c r="B359" t="s">
-        <v>644</v>
+        <v>557</v>
       </c>
       <c r="C359" t="s">
-        <v>645</v>
+        <v>558</v>
       </c>
       <c r="D359" t="s">
         <v>6</v>
       </c>
       <c r="E359" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B360" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C360" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D360" t="s">
         <v>6</v>
       </c>
       <c r="E360" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>640</v>
+        <v>568</v>
       </c>
       <c r="B361" t="s">
-        <v>641</v>
+        <v>569</v>
       </c>
       <c r="C361" t="s">
-        <v>642</v>
+        <v>570</v>
       </c>
       <c r="D361" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E361" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="B362" t="s">
-        <v>627</v>
+        <v>551</v>
       </c>
       <c r="C362" t="s">
-        <v>626</v>
+        <v>552</v>
       </c>
       <c r="D362" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E362" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B363" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C363" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D363" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E363" t="s">
         <v>652</v>
@@ -9935,16 +9989,16 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="B364" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="C364" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="D364" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E364" t="s">
         <v>652</v>
@@ -9952,13 +10006,13 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="B365" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="C365" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
@@ -9969,16 +10023,16 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B366" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C366" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D366" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E366" t="s">
         <v>652</v>
@@ -9986,16 +10040,16 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="B367" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="C367" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
       <c r="D367" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E367" t="s">
         <v>652</v>
@@ -10003,13 +10057,13 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B368" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C368" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D368" t="s">
         <v>6</v>
@@ -10020,13 +10074,13 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="B369" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="C369" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="D369" t="s">
         <v>71</v>
@@ -10037,16 +10091,16 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="B370" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="C370" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="D370" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E370" t="s">
         <v>652</v>
@@ -10054,16 +10108,16 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B371" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C371" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="D371" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E371" t="s">
         <v>652</v>
@@ -10071,16 +10125,16 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="C372" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="D372" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E372" t="s">
         <v>652</v>
@@ -10088,13 +10142,13 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="B373" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="C373" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="D373" t="s">
         <v>82</v>
@@ -10105,13 +10159,13 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="B374" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="C374" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="D374" t="s">
         <v>6</v>
@@ -10122,16 +10176,16 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B375" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C375" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D375" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E375" t="s">
         <v>652</v>
@@ -10139,465 +10193,567 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
-        <v>1079</v>
+        <v>649</v>
       </c>
       <c r="B376" t="s">
-        <v>1080</v>
+        <v>650</v>
       </c>
       <c r="C376" t="s">
-        <v>1081</v>
+        <v>651</v>
       </c>
       <c r="D376" t="s">
-        <v>6</v>
-      </c>
-      <c r="E376" s="4" t="s">
-        <v>1101</v>
+        <v>82</v>
+      </c>
+      <c r="E376" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
-        <v>1084</v>
+        <v>634</v>
       </c>
       <c r="B377" t="s">
-        <v>1085</v>
+        <v>636</v>
       </c>
       <c r="C377" t="s">
-        <v>1086</v>
+        <v>635</v>
       </c>
       <c r="D377" t="s">
-        <v>71</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>1101</v>
+        <v>82</v>
+      </c>
+      <c r="E377" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
-        <v>1071</v>
+        <v>628</v>
       </c>
       <c r="B378" t="s">
-        <v>1071</v>
+        <v>629</v>
       </c>
       <c r="C378" t="s">
-        <v>1072</v>
+        <v>630</v>
       </c>
       <c r="D378" t="s">
-        <v>80</v>
-      </c>
-      <c r="E378" s="4" t="s">
-        <v>1101</v>
+        <v>6</v>
+      </c>
+      <c r="E378" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" t="s">
-        <v>1094</v>
+        <v>631</v>
       </c>
       <c r="B379" t="s">
-        <v>1094</v>
+        <v>632</v>
       </c>
       <c r="C379" t="s">
-        <v>1095</v>
+        <v>633</v>
       </c>
       <c r="D379" t="s">
-        <v>71</v>
-      </c>
-      <c r="E379" s="4" t="s">
-        <v>1101</v>
+        <v>82</v>
+      </c>
+      <c r="E379" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" t="s">
-        <v>1069</v>
+        <v>610</v>
       </c>
       <c r="B380" t="s">
-        <v>1069</v>
+        <v>611</v>
       </c>
       <c r="C380" t="s">
-        <v>1070</v>
+        <v>612</v>
       </c>
       <c r="D380" t="s">
         <v>6</v>
       </c>
-      <c r="E380" s="4" t="s">
-        <v>1101</v>
+      <c r="E380" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" t="s">
-        <v>1096</v>
+        <v>607</v>
       </c>
       <c r="B381" t="s">
-        <v>1097</v>
+        <v>608</v>
       </c>
       <c r="C381" t="s">
-        <v>1098</v>
+        <v>609</v>
       </c>
       <c r="D381" t="s">
         <v>82</v>
       </c>
-      <c r="E381" s="4" t="s">
-        <v>1101</v>
+      <c r="E381" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B382" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="C382" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="D382" t="s">
         <v>6</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="B383" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="C383" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D383" t="s">
+        <v>71</v>
+      </c>
+      <c r="E383" s="4" t="s">
         <v>1100</v>
-      </c>
-      <c r="D383" t="s">
-        <v>80</v>
-      </c>
-      <c r="E383" s="4" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="B384" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="C384" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="D384" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="B385" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="C385" t="s">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="D385" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="B386" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="C386" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="D386" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="B387" t="s">
-        <v>1082</v>
+        <v>1096</v>
       </c>
       <c r="C387" t="s">
-        <v>1083</v>
+        <v>1097</v>
       </c>
       <c r="D387" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="B388" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="C388" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="D388" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="B389" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="C389" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="D389" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" t="s">
-        <v>940</v>
+        <v>1086</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>1086</v>
       </c>
       <c r="C390" t="s">
-        <v>941</v>
-      </c>
-      <c r="D390" s="4" t="s">
-        <v>6</v>
+        <v>1087</v>
+      </c>
+      <c r="D390" t="s">
+        <v>82</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>950</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
-        <v>920</v>
+        <v>1072</v>
       </c>
       <c r="B391" t="s">
-        <v>921</v>
+        <v>1072</v>
       </c>
       <c r="C391" t="s">
-        <v>922</v>
-      </c>
-      <c r="D391" s="4" t="s">
-        <v>82</v>
+        <v>1073</v>
+      </c>
+      <c r="D391" t="s">
+        <v>80</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>950</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>929</v>
+        <v>1076</v>
       </c>
       <c r="B392" t="s">
-        <v>930</v>
+        <v>1076</v>
       </c>
       <c r="C392" t="s">
-        <v>931</v>
-      </c>
-      <c r="D392" s="4" t="s">
-        <v>6</v>
+        <v>1077</v>
+      </c>
+      <c r="D392" t="s">
+        <v>71</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>950</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
-        <v>932</v>
+        <v>1081</v>
       </c>
       <c r="B393" t="s">
-        <v>933</v>
+        <v>1081</v>
       </c>
       <c r="C393" t="s">
-        <v>934</v>
-      </c>
-      <c r="D393" s="4" t="s">
-        <v>82</v>
+        <v>1082</v>
+      </c>
+      <c r="D393" t="s">
+        <v>80</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>950</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" t="s">
-        <v>942</v>
+        <v>1088</v>
       </c>
       <c r="B394" t="s">
-        <v>943</v>
+        <v>1088</v>
       </c>
       <c r="C394" t="s">
-        <v>944</v>
-      </c>
-      <c r="D394" s="4" t="s">
-        <v>6</v>
+        <v>1089</v>
+      </c>
+      <c r="D394" t="s">
+        <v>80</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>950</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" t="s">
-        <v>917</v>
+        <v>1090</v>
       </c>
       <c r="B395" t="s">
-        <v>918</v>
+        <v>1091</v>
       </c>
       <c r="C395" t="s">
-        <v>919</v>
-      </c>
-      <c r="D395" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D395" t="s">
         <v>6</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>950</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B396" t="s">
-        <v>936</v>
+        <v>9</v>
       </c>
       <c r="C396" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="B397" t="s">
-        <v>848</v>
+        <v>920</v>
       </c>
       <c r="C397" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="B398" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="C398" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="B399" t="s">
-        <v>814</v>
+        <v>932</v>
       </c>
       <c r="C399" t="s">
-        <v>946</v>
-      </c>
-      <c r="D399" t="s">
+        <v>933</v>
+      </c>
+      <c r="D399" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B400" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C400" t="s">
+        <v>943</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" s="4" t="s">
         <v>949</v>
-      </c>
-      <c r="D400" t="s">
-        <v>6</v>
-      </c>
-      <c r="E400" s="4" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B401" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C401" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" t="s">
+        <v>934</v>
+      </c>
+      <c r="B402" t="s">
+        <v>935</v>
+      </c>
+      <c r="C402" t="s">
+        <v>936</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>937</v>
+      </c>
+      <c r="B403" t="s">
+        <v>847</v>
+      </c>
+      <c r="C403" t="s">
+        <v>938</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>922</v>
+      </c>
+      <c r="B404" t="s">
+        <v>923</v>
+      </c>
+      <c r="C404" t="s">
+        <v>924</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>944</v>
+      </c>
+      <c r="B405" t="s">
+        <v>813</v>
+      </c>
+      <c r="C405" t="s">
+        <v>945</v>
+      </c>
+      <c r="D405" t="s">
+        <v>82</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>946</v>
+      </c>
+      <c r="B406" t="s">
+        <v>947</v>
+      </c>
+      <c r="C406" t="s">
+        <v>948</v>
+      </c>
+      <c r="D406" t="s">
+        <v>6</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>913</v>
+      </c>
+      <c r="B407" t="s">
+        <v>914</v>
+      </c>
+      <c r="C407" t="s">
+        <v>915</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>925</v>
+      </c>
+      <c r="B408" t="s">
         <v>926</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C408" t="s">
         <v>927</v>
       </c>
-      <c r="C402" t="s">
-        <v>928</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>950</v>
+      <c r="D408" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E161">
+  <autoFilter ref="A1:E167">
     <sortState ref="A2:E396">
       <sortCondition ref="E1:E155"/>
     </sortState>

--- a/XcomPerkManager/XComAbilityList.xlsx
+++ b/XcomPerkManager/XComAbilityList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$169</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1147">
   <si>
     <t>Name</t>
   </si>
@@ -3448,6 +3448,18 @@
   </si>
   <si>
     <t>F_HW_RuptureWarheads</t>
+  </si>
+  <si>
+    <t>F_MP_Flurry</t>
+  </si>
+  <si>
+    <t>Flurry (WIP)</t>
+  </si>
+  <si>
+    <t>F_MP_ArmorPiercer</t>
+  </si>
+  <si>
+    <t>Armor Piercer (WIP)</t>
   </si>
 </sst>
 </file>
@@ -3792,10 +3804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O408"/>
+  <dimension ref="A1:O410"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="E52" sqref="E52:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4685,47 +4697,47 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>897</v>
+        <v>1143</v>
       </c>
       <c r="B52" t="s">
-        <v>898</v>
+        <v>1144</v>
       </c>
       <c r="C52" t="s">
-        <v>899</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>6</v>
+        <v>1141</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>886</v>
+        <v>1145</v>
       </c>
       <c r="B53" t="s">
-        <v>886</v>
+        <v>1146</v>
       </c>
       <c r="C53" t="s">
-        <v>887</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>6</v>
+        <v>1141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B54" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C54" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>6</v>
@@ -4736,16 +4748,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B55" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C55" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
         <v>186</v>
@@ -4753,13 +4765,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="B56" t="s">
-        <v>882</v>
+        <v>908</v>
       </c>
       <c r="C56" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>6</v>
@@ -4770,16 +4782,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="B57" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="C57" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
         <v>186</v>
@@ -4787,30 +4799,30 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B58" t="s">
-        <v>627</v>
+        <v>882</v>
       </c>
       <c r="C58" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B59" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C59" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>6</v>
@@ -4821,33 +4833,33 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="B60" t="s">
-        <v>895</v>
+        <v>627</v>
       </c>
       <c r="C60" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="B61" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C61" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
         <v>186</v>
@@ -4855,16 +4867,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B62" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C62" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E62" t="s">
         <v>186</v>
@@ -4872,16 +4884,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B63" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="C63" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -4889,13 +4901,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="B64" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C64" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>6</v>
@@ -4906,16 +4918,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="B65" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="C65" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
         <v>186</v>
@@ -4923,50 +4935,50 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>523</v>
+        <v>888</v>
       </c>
       <c r="B66" t="s">
-        <v>523</v>
+        <v>888</v>
       </c>
       <c r="C66" t="s">
-        <v>1018</v>
+        <v>889</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>1025</v>
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>997</v>
+        <v>905</v>
       </c>
       <c r="B67" t="s">
-        <v>998</v>
+        <v>905</v>
       </c>
       <c r="C67" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>1025</v>
+      <c r="E67" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>991</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s">
-        <v>992</v>
+        <v>523</v>
       </c>
       <c r="C68" t="s">
-        <v>993</v>
-      </c>
-      <c r="D68" t="s">
-        <v>82</v>
+        <v>1018</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>1025</v>
@@ -4974,16 +4986,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
       <c r="B69" t="s">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="C69" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>1025</v>
@@ -4991,15 +5003,15 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="B70" t="s">
-        <v>602</v>
+        <v>992</v>
       </c>
       <c r="C70" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D70" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D70" t="s">
         <v>82</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -5008,16 +5020,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B71" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C71" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>1025</v>
@@ -5025,13 +5037,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="B72" t="s">
-        <v>1005</v>
+        <v>602</v>
       </c>
       <c r="C72" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>82</v>
@@ -5042,16 +5054,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="B73" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="C73" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>1025</v>
@@ -5059,16 +5071,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="B74" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>1025</v>
@@ -5076,13 +5088,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="B75" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="C75" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>80</v>
@@ -5093,15 +5105,15 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="B76" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="C76" t="s">
-        <v>990</v>
-      </c>
-      <c r="D76" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -5110,13 +5122,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="B77" t="s">
-        <v>995</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>996</v>
+        <v>1016</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1017</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>80</v>
@@ -5127,16 +5139,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="B78" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="C78" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>82</v>
+        <v>990</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>1025</v>
@@ -5144,16 +5156,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="B79" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1012</v>
+        <v>995</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>996</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>1025</v>
@@ -5161,47 +5173,47 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>967</v>
+        <v>1007</v>
       </c>
       <c r="B80" t="s">
-        <v>968</v>
+        <v>1008</v>
       </c>
       <c r="C80" t="s">
-        <v>969</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
+        <v>1009</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>953</v>
+        <v>1010</v>
       </c>
       <c r="B81" t="s">
-        <v>336</v>
+        <v>1011</v>
       </c>
       <c r="C81" t="s">
-        <v>954</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
+        <v>1012</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="B82" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="C82" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -5212,13 +5224,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="B83" t="s">
-        <v>977</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
@@ -5229,13 +5241,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>964</v>
+        <v>984</v>
       </c>
       <c r="B84" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="C84" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
@@ -5246,13 +5258,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="B85" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="C85" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
@@ -5263,13 +5275,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="B86" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
       <c r="C86" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
@@ -5280,16 +5292,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="B87" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C87" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="D87" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>987</v>
@@ -5297,16 +5309,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="B88" t="s">
-        <v>982</v>
+        <v>951</v>
       </c>
       <c r="C88" t="s">
-        <v>983</v>
+        <v>952</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>987</v>
@@ -5314,16 +5326,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="B89" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="C89" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>987</v>
@@ -5331,16 +5343,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="B90" t="s">
-        <v>962</v>
+        <v>982</v>
       </c>
       <c r="C90" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
       <c r="D90" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>987</v>
@@ -5348,13 +5360,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="B91" t="s">
-        <v>789</v>
+        <v>974</v>
       </c>
       <c r="C91" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
@@ -5365,16 +5377,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="B92" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C92" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>987</v>
@@ -5382,50 +5394,50 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>390</v>
+        <v>979</v>
       </c>
       <c r="B93" t="s">
-        <v>391</v>
+        <v>789</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>980</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E93" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>955</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>956</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>957</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
-      </c>
-      <c r="E94" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E95" t="s">
         <v>54</v>
@@ -5433,13 +5445,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
         <v>82</v>
@@ -5450,13 +5462,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D97" t="s">
         <v>71</v>
@@ -5467,16 +5479,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="B98" t="s">
-        <v>394</v>
+        <v>325</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="D98" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E98" t="s">
         <v>54</v>
@@ -5484,16 +5496,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>385</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>386</v>
       </c>
       <c r="D99" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
@@ -5501,16 +5513,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>395</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E100" t="s">
         <v>54</v>
@@ -5518,13 +5530,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
         <v>82</v>
@@ -5535,13 +5547,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B102" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D102" t="s">
         <v>82</v>
@@ -5552,13 +5564,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
         <v>82</v>
@@ -5569,16 +5581,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E104" t="s">
         <v>54</v>
@@ -5586,16 +5598,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E105" t="s">
         <v>54</v>
@@ -5603,16 +5615,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="D106" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E106" t="s">
         <v>54</v>
@@ -5620,16 +5632,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C107" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E107" t="s">
         <v>54</v>
@@ -5637,13 +5649,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="B108" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="C108" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -5654,13 +5666,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>304</v>
       </c>
       <c r="D109" t="s">
         <v>71</v>
@@ -5671,16 +5683,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="C110" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="D110" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
         <v>54</v>
@@ -5688,16 +5700,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="C111" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="D111" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E111" t="s">
         <v>54</v>
@@ -5705,13 +5717,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="D112" t="s">
         <v>82</v>
@@ -5722,16 +5734,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B113" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
         <v>54</v>
@@ -5739,16 +5751,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="B114" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
       <c r="C114" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="D114" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E114" t="s">
         <v>54</v>
@@ -5756,16 +5768,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="C115" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="D115" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E115" t="s">
         <v>54</v>
@@ -5773,16 +5785,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="B116" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E116" t="s">
         <v>54</v>
@@ -5790,13 +5802,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="B117" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>398</v>
+        <v>275</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -5807,16 +5819,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E118" t="s">
         <v>54</v>
@@ -5824,16 +5836,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>396</v>
       </c>
       <c r="B119" t="s">
-        <v>267</v>
+        <v>397</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>398</v>
       </c>
       <c r="D119" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E119" t="s">
         <v>54</v>
@@ -5841,13 +5853,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -5858,16 +5870,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="D121" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E121" t="s">
         <v>54</v>
@@ -5875,13 +5887,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
-        <v>355</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -5892,13 +5904,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="B123" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -5909,13 +5921,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B124" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="C124" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -5926,13 +5938,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="B125" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="C125" t="s">
-        <v>346</v>
+        <v>160</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -5943,16 +5955,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B126" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C126" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D126" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
         <v>54</v>
@@ -5960,16 +5972,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B127" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="C127" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E127" t="s">
         <v>54</v>
@@ -5977,16 +5989,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>374</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>375</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="D128" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E128" t="s">
         <v>54</v>
@@ -5994,16 +6006,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="B129" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E129" t="s">
         <v>54</v>
@@ -6011,16 +6023,16 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
         <v>54</v>
@@ -6028,13 +6040,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
@@ -6045,16 +6057,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="D132" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E132" t="s">
         <v>54</v>
@@ -6062,16 +6074,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B133" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C133" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D133" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E133" t="s">
         <v>54</v>
@@ -6079,16 +6091,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E134" t="s">
         <v>54</v>
@@ -6096,16 +6108,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="B135" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="C135" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E135" t="s">
         <v>54</v>
@@ -6113,13 +6125,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>63</v>
+        <v>387</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>388</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>389</v>
       </c>
       <c r="D136" t="s">
         <v>82</v>
@@ -6130,16 +6142,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="D137" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E137" t="s">
         <v>54</v>
@@ -6147,13 +6159,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
         <v>82</v>
@@ -6164,13 +6176,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="D139" t="s">
         <v>82</v>
@@ -6181,16 +6193,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="C140" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="D140" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
         <v>54</v>
@@ -6198,13 +6210,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="B141" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C141" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="D141" t="s">
         <v>82</v>
@@ -6215,16 +6227,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>316</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="D142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E142" t="s">
         <v>54</v>
@@ -6232,13 +6244,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="C143" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D143" t="s">
         <v>82</v>
@@ -6249,16 +6261,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B144" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D144" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E144" t="s">
         <v>54</v>
@@ -6266,16 +6278,16 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>405</v>
+        <v>282</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="C145" t="s">
-        <v>407</v>
+        <v>284</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E145" t="s">
         <v>54</v>
@@ -6283,16 +6295,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B146" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C146" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E146" t="s">
         <v>54</v>
@@ -6300,16 +6312,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="B147" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="C147" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="D147" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E147" t="s">
         <v>54</v>
@@ -6317,16 +6329,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B148" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D148" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E148" t="s">
         <v>54</v>
@@ -6334,16 +6346,16 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>36</v>
+        <v>368</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>369</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E149" t="s">
         <v>54</v>
@@ -6351,16 +6363,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>321</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E150" t="s">
         <v>54</v>
@@ -6368,16 +6380,16 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="B151" t="s">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="D151" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E151" t="s">
         <v>54</v>
@@ -6385,16 +6397,16 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E152" t="s">
         <v>54</v>
@@ -6402,13 +6414,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="B153" t="s">
-        <v>73</v>
+        <v>360</v>
       </c>
       <c r="C153" t="s">
-        <v>86</v>
+        <v>361</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -6419,16 +6431,16 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="D154" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E154" t="s">
         <v>54</v>
@@ -6436,16 +6448,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="C155" t="s">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="D155" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E155" t="s">
         <v>54</v>
@@ -6453,16 +6465,16 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>402</v>
+        <v>67</v>
       </c>
       <c r="B156" t="s">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>404</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E156" t="s">
         <v>54</v>
@@ -6470,16 +6482,16 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B157" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="C157" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="D157" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E157" t="s">
         <v>54</v>
@@ -6487,16 +6499,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="B158" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="C158" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="D158" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E158" t="s">
         <v>54</v>
@@ -6504,16 +6516,16 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="B159" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="C159" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="D159" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E159" t="s">
         <v>54</v>
@@ -6521,13 +6533,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="D160" t="s">
         <v>82</v>
@@ -6538,16 +6550,16 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="B161" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="C161" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="D161" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E161" t="s">
         <v>54</v>
@@ -6555,13 +6567,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="D162" t="s">
         <v>82</v>
@@ -6572,16 +6584,16 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="B163" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>367</v>
       </c>
       <c r="D163" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E163" t="s">
         <v>54</v>
@@ -6589,16 +6601,16 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D164" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E164" t="s">
         <v>54</v>
@@ -6606,16 +6618,16 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="C165" t="s">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E165" t="s">
         <v>54</v>
@@ -6623,16 +6635,16 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E166" t="s">
         <v>54</v>
@@ -6640,16 +6652,16 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="C167" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="D167" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E167" t="s">
         <v>54</v>
@@ -6657,13 +6669,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="D168" t="s">
         <v>82</v>
@@ -6674,16 +6686,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="B169" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="C169" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="D169" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E169" t="s">
         <v>54</v>
@@ -6691,49 +6703,49 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>871</v>
+        <v>60</v>
       </c>
       <c r="B170" t="s">
-        <v>872</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>873</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>879</v>
+        <v>82</v>
+      </c>
+      <c r="E170" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>868</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
-        <v>869</v>
+        <v>277</v>
       </c>
       <c r="C171" t="s">
-        <v>870</v>
+        <v>278</v>
       </c>
       <c r="D171" t="s">
-        <v>71</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>879</v>
+        <v>80</v>
+      </c>
+      <c r="E171" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="B172" t="s">
-        <v>849</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="D172" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C172" t="s">
+        <v>873</v>
+      </c>
+      <c r="D172" t="s">
         <v>6</v>
       </c>
       <c r="E172" s="4" t="s">
@@ -6742,15 +6754,15 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="B173" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="C173" t="s">
-        <v>858</v>
-      </c>
-      <c r="D173" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D173" t="s">
         <v>71</v>
       </c>
       <c r="E173" s="4" t="s">
@@ -6759,15 +6771,15 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="B174" t="s">
-        <v>875</v>
-      </c>
-      <c r="C174" t="s">
-        <v>876</v>
-      </c>
-      <c r="D174" t="s">
+        <v>849</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E174" s="4" t="s">
@@ -6776,13 +6788,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="B175" t="s">
-        <v>877</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>878</v>
+        <v>857</v>
+      </c>
+      <c r="C175" t="s">
+        <v>858</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>71</v>
@@ -6793,13 +6805,13 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="B176" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="C176" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="D176" t="s">
         <v>6</v>
@@ -6810,13 +6822,13 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="B177" t="s">
-        <v>854</v>
-      </c>
-      <c r="C177" t="s">
-        <v>855</v>
+        <v>877</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>878</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>71</v>
@@ -6827,16 +6839,16 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="B178" t="s">
-        <v>852</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>71</v>
+        <v>863</v>
+      </c>
+      <c r="C178" t="s">
+        <v>864</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>879</v>
@@ -6844,13 +6856,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B179" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C179" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>71</v>
@@ -6861,16 +6873,16 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="B180" t="s">
-        <v>866</v>
-      </c>
-      <c r="C180" t="s">
-        <v>867</v>
-      </c>
-      <c r="D180" t="s">
-        <v>6</v>
+        <v>852</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>879</v>
@@ -6878,50 +6890,50 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>1042</v>
+        <v>859</v>
       </c>
       <c r="B181" t="s">
-        <v>1042</v>
+        <v>860</v>
       </c>
       <c r="C181" t="s">
-        <v>1043</v>
+        <v>861</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>1038</v>
+        <v>865</v>
       </c>
       <c r="B182" t="s">
-        <v>705</v>
+        <v>866</v>
       </c>
       <c r="C182" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>82</v>
+        <v>867</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="B183" t="s">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="C183" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>1067</v>
@@ -6929,13 +6941,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B184" t="s">
-        <v>1033</v>
+        <v>705</v>
       </c>
       <c r="C184" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>82</v>
@@ -6946,13 +6958,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B185" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C185" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>71</v>
@@ -6963,13 +6975,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>1054</v>
+        <v>1032</v>
       </c>
       <c r="B186" t="s">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="C186" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>82</v>
@@ -6980,16 +6992,16 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>755</v>
+        <v>1060</v>
       </c>
       <c r="B187" t="s">
-        <v>755</v>
+        <v>1061</v>
       </c>
       <c r="C187" t="s">
-        <v>1040</v>
+        <v>1062</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>1067</v>
@@ -6997,16 +7009,16 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B188" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C188" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>1067</v>
@@ -7014,16 +7026,16 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>1026</v>
+        <v>755</v>
       </c>
       <c r="B189" t="s">
-        <v>1027</v>
+        <v>755</v>
       </c>
       <c r="C189" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>1067</v>
@@ -7031,16 +7043,16 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="B190" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="C190" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>1067</v>
@@ -7048,16 +7060,16 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>459</v>
+        <v>1026</v>
       </c>
       <c r="B191" t="s">
-        <v>459</v>
+        <v>1027</v>
       </c>
       <c r="C191" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D191" t="s">
-        <v>71</v>
+        <v>1028</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>1067</v>
@@ -7065,16 +7077,16 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="B192" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="C192" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>1067</v>
@@ -7082,16 +7094,16 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>1044</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s">
-        <v>1044</v>
+        <v>459</v>
       </c>
       <c r="C193" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>82</v>
+        <v>1066</v>
+      </c>
+      <c r="D193" t="s">
+        <v>71</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>1067</v>
@@ -7099,16 +7111,16 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B194" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C194" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>1067</v>
@@ -7116,16 +7128,16 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B195" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C195" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>1067</v>
@@ -7133,16 +7145,16 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>677</v>
+        <v>1035</v>
       </c>
       <c r="B196" t="s">
-        <v>677</v>
+        <v>1036</v>
       </c>
       <c r="C196" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>1067</v>
@@ -7150,16 +7162,16 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="B197" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="C197" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>1067</v>
@@ -7167,47 +7179,47 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>780</v>
+        <v>677</v>
       </c>
       <c r="B198" t="s">
-        <v>782</v>
+        <v>677</v>
       </c>
       <c r="C198" t="s">
-        <v>781</v>
-      </c>
-      <c r="D198" t="s">
-        <v>80</v>
-      </c>
-      <c r="E198" t="s">
-        <v>805</v>
+        <v>1041</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>783</v>
+        <v>1046</v>
       </c>
       <c r="B199" t="s">
-        <v>784</v>
+        <v>1047</v>
       </c>
       <c r="C199" t="s">
-        <v>785</v>
-      </c>
-      <c r="D199" t="s">
-        <v>80</v>
-      </c>
-      <c r="E199" t="s">
-        <v>805</v>
+        <v>1048</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="B200" t="s">
-        <v>432</v>
+        <v>782</v>
       </c>
       <c r="C200" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
@@ -7218,13 +7230,13 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="B201" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C201" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
@@ -7235,13 +7247,13 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="B202" t="s">
-        <v>739</v>
+        <v>432</v>
       </c>
       <c r="C202" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
@@ -7252,16 +7264,16 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B203" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C203" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D203" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E203" t="s">
         <v>805</v>
@@ -7269,13 +7281,13 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="B204" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="C204" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
@@ -7286,13 +7298,13 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="B205" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="C205" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="D205" t="s">
         <v>71</v>
@@ -7303,13 +7315,13 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B206" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C206" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
@@ -7320,16 +7332,16 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B207" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="C207" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="D207" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E207" t="s">
         <v>805</v>
@@ -7337,16 +7349,16 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B208" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C208" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D208" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E208" t="s">
         <v>805</v>
@@ -7354,13 +7366,13 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B209" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C209" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D209" t="s">
         <v>82</v>
@@ -7371,16 +7383,16 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="B210" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="C210" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
       <c r="D210" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E210" t="s">
         <v>805</v>
@@ -7388,16 +7400,16 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="B211" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="C211" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="D211" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E211" t="s">
         <v>805</v>
@@ -7405,13 +7417,13 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="B212" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
       <c r="C212" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="D212" t="s">
         <v>80</v>
@@ -7422,13 +7434,13 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="B213" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="C213" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
@@ -7439,13 +7451,13 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B214" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C214" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -7456,47 +7468,47 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>175</v>
+        <v>777</v>
       </c>
       <c r="B215" t="s">
-        <v>176</v>
+        <v>778</v>
       </c>
       <c r="C215" t="s">
-        <v>204</v>
+        <v>779</v>
       </c>
       <c r="D215" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E215" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>157</v>
+        <v>768</v>
       </c>
       <c r="B216" t="s">
-        <v>158</v>
+        <v>769</v>
       </c>
       <c r="C216" t="s">
-        <v>159</v>
+        <v>770</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E216" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="B217" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="C217" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="D217" t="s">
         <v>71</v>
@@ -7507,16 +7519,16 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="B218" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D218" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E218" t="s">
         <v>6</v>
@@ -7524,16 +7536,16 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="B219" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C219" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="D219" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E219" t="s">
         <v>6</v>
@@ -7541,16 +7553,16 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="B220" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="C220" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="D220" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E220" t="s">
         <v>6</v>
@@ -7558,16 +7570,16 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="B221" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="C221" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="D221" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E221" t="s">
         <v>6</v>
@@ -7575,13 +7587,13 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B222" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C222" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D222" t="s">
         <v>82</v>
@@ -7592,13 +7604,13 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B223" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C223" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D223" t="s">
         <v>71</v>
@@ -7609,13 +7621,13 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="B224" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="C224" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="D224" t="s">
         <v>82</v>
@@ -7626,16 +7638,16 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B225" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C225" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D225" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E225" t="s">
         <v>6</v>
@@ -7643,13 +7655,13 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="B226" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="C226" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="D226" t="s">
         <v>82</v>
@@ -7660,13 +7672,13 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="B227" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C227" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="D227" t="s">
         <v>82</v>
@@ -7677,16 +7689,16 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B228" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C228" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E228" t="s">
         <v>6</v>
@@ -7694,13 +7706,13 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B229" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C229" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="D229" t="s">
         <v>82</v>
@@ -7711,16 +7723,16 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="C230" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="D230" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E230" t="s">
         <v>6</v>
@@ -7728,16 +7740,16 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="B231" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="C231" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D231" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E231" t="s">
         <v>6</v>
@@ -7745,13 +7757,13 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="D232" t="s">
         <v>71</v>
@@ -7762,16 +7774,16 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B233" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C233" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="D233" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E233" t="s">
         <v>6</v>
@@ -7779,16 +7791,16 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="B234" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="C234" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="D234" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E234" t="s">
         <v>6</v>
@@ -7796,13 +7808,13 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="B235" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="C235" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="D235" t="s">
         <v>71</v>
@@ -7813,16 +7825,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C236" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D236" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E236" t="s">
         <v>6</v>
@@ -7830,16 +7842,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="B237" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="C237" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="D237" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E237" t="s">
         <v>6</v>
@@ -7847,13 +7859,13 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="B238" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="C238" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="D238" t="s">
         <v>71</v>
@@ -7864,16 +7876,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B239" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C239" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D239" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E239" t="s">
         <v>6</v>
@@ -7881,16 +7893,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B240" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C240" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="D240" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E240" t="s">
         <v>6</v>
@@ -7898,16 +7910,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B241" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C241" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D241" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E241" t="s">
         <v>6</v>
@@ -7915,16 +7927,16 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B242" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="C242" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D242" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E242" t="s">
         <v>6</v>
@@ -7932,16 +7944,16 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B243" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C243" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="D243" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E243" t="s">
         <v>6</v>
@@ -7949,16 +7961,16 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="B244" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="C244" t="s">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c r="D244" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E244" t="s">
         <v>6</v>
@@ -7966,16 +7978,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="B245" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="C245" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="D245" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E245" t="s">
         <v>6</v>
@@ -7983,16 +7995,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="B246" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="C246" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="D246" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E246" t="s">
         <v>6</v>
@@ -8000,13 +8012,13 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="B247" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="C247" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D247" t="s">
         <v>71</v>
@@ -8017,13 +8029,13 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B248" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C248" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D248" t="s">
         <v>82</v>
@@ -8034,13 +8046,13 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B249" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C249" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D249" t="s">
         <v>71</v>
@@ -8051,16 +8063,16 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B250" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C250" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D250" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E250" t="s">
         <v>6</v>
@@ -8068,16 +8080,16 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C251" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="D251" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E251" t="s">
         <v>6</v>
@@ -8085,16 +8097,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B252" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C252" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D252" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E252" t="s">
         <v>6</v>
@@ -8102,16 +8114,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="B253" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E253" t="s">
         <v>6</v>
@@ -8119,16 +8131,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="B254" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="C254" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="D254" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E254" t="s">
         <v>6</v>
@@ -8136,16 +8148,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B255" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="C255" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="D255" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E255" t="s">
         <v>6</v>
@@ -8153,13 +8165,13 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="B256" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="C256" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="D256" t="s">
         <v>71</v>
@@ -8170,16 +8182,16 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="B257" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="C257" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="D257" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E257" t="s">
         <v>6</v>
@@ -8187,13 +8199,13 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B258" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C258" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D258" t="s">
         <v>71</v>
@@ -8204,16 +8216,16 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B259" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="D259" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E259" t="s">
         <v>6</v>
@@ -8221,13 +8233,13 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B260" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C260" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D260" t="s">
         <v>71</v>
@@ -8238,16 +8250,16 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="B261" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="C261" t="s">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="D261" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E261" t="s">
         <v>6</v>
@@ -8255,13 +8267,13 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B262" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C262" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D262" t="s">
         <v>71</v>
@@ -8272,13 +8284,13 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B263" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C263" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D263" t="s">
         <v>71</v>
@@ -8289,16 +8301,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B264" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C264" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E264" t="s">
         <v>6</v>
@@ -8306,16 +8318,16 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="B265" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C265" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D265" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E265" t="s">
         <v>6</v>
@@ -8323,16 +8335,16 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="C266" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D266" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E266" t="s">
         <v>6</v>
@@ -8340,16 +8352,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B267" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C267" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="D267" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E267" t="s">
         <v>6</v>
@@ -8357,16 +8369,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="B268" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="C268" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="D268" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E268" t="s">
         <v>6</v>
@@ -8374,16 +8386,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B269" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C269" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D269" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E269" t="s">
         <v>6</v>
@@ -8391,16 +8403,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="B270" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="C270" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="D270" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E270" t="s">
         <v>6</v>
@@ -8408,13 +8420,13 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="B271" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="C271" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="D271" t="s">
         <v>80</v>
@@ -8425,16 +8437,16 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B272" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C272" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="D272" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E272" t="s">
         <v>6</v>
@@ -8442,16 +8454,16 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B273" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C273" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="D273" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E273" t="s">
         <v>6</v>
@@ -8459,16 +8471,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="B274" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="C274" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="D274" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E274" t="s">
         <v>6</v>
@@ -8476,16 +8488,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="B275" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="C275" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="D275" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E275" t="s">
         <v>6</v>
@@ -8493,13 +8505,13 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B276" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C276" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D276" t="s">
         <v>71</v>
@@ -8510,16 +8522,16 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="B277" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="C277" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="D277" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E277" t="s">
         <v>6</v>
@@ -8527,13 +8539,13 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B278" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C278" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D278" t="s">
         <v>71</v>
@@ -8544,16 +8556,16 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="B279" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="C279" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="D279" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E279" t="s">
         <v>6</v>
@@ -8561,16 +8573,16 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="B280" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="C280" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="D280" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E280" t="s">
         <v>6</v>
@@ -8578,16 +8590,16 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="B281" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="C281" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E281" t="s">
         <v>6</v>
@@ -8595,16 +8607,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B282" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C282" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D282" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E282" t="s">
         <v>6</v>
@@ -8612,16 +8624,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="B283" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="C283" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="D283" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E283" t="s">
         <v>6</v>
@@ -8629,16 +8641,16 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="B284" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="C284" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="D284" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E284" t="s">
         <v>6</v>
@@ -8646,16 +8658,16 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B285" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C285" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="D285" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E285" t="s">
         <v>6</v>
@@ -8663,16 +8675,16 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B286" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C286" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D286" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E286" t="s">
         <v>6</v>
@@ -8680,16 +8692,16 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="B287" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C287" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D287" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E287" t="s">
         <v>6</v>
@@ -8697,16 +8709,16 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B288" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="C288" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="D288" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E288" t="s">
         <v>6</v>
@@ -8714,50 +8726,50 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>809</v>
+        <v>234</v>
       </c>
       <c r="B289" t="s">
-        <v>810</v>
+        <v>235</v>
       </c>
       <c r="C289" t="s">
-        <v>811</v>
+        <v>249</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E289" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>839</v>
+        <v>146</v>
       </c>
       <c r="B290" t="s">
-        <v>840</v>
+        <v>147</v>
       </c>
       <c r="C290" t="s">
-        <v>841</v>
+        <v>165</v>
       </c>
       <c r="D290" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E290" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B291" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C291" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D291" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E291" t="s">
         <v>847</v>
@@ -8765,16 +8777,16 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="B292" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="C292" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="D292" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E292" t="s">
         <v>847</v>
@@ -8782,13 +8794,13 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B293" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="C293" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="D293" t="s">
         <v>82</v>
@@ -8799,16 +8811,16 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="B294" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="C294" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="D294" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E294" t="s">
         <v>847</v>
@@ -8816,16 +8828,16 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="B295" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="C295" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="D295" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E295" t="s">
         <v>847</v>
@@ -8833,16 +8845,16 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B296" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C296" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D296" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E296" t="s">
         <v>847</v>
@@ -8850,16 +8862,16 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="B297" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="C297" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="D297" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E297" t="s">
         <v>847</v>
@@ -8867,13 +8879,13 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="B298" t="s">
-        <v>99</v>
+        <v>817</v>
       </c>
       <c r="C298" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="D298" t="s">
         <v>82</v>
@@ -8884,13 +8896,13 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B299" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C299" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D299" t="s">
         <v>82</v>
@@ -8901,13 +8913,13 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="B300" t="s">
-        <v>831</v>
+        <v>99</v>
       </c>
       <c r="C300" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="D300" t="s">
         <v>82</v>
@@ -8918,13 +8930,13 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B301" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C301" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D301" t="s">
         <v>82</v>
@@ -8935,16 +8947,16 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="B302" t="s">
-        <v>845</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>6</v>
+        <v>831</v>
+      </c>
+      <c r="C302" t="s">
+        <v>832</v>
+      </c>
+      <c r="D302" t="s">
+        <v>82</v>
       </c>
       <c r="E302" t="s">
         <v>847</v>
@@ -8952,47 +8964,47 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>473</v>
+        <v>833</v>
       </c>
       <c r="B303" t="s">
-        <v>474</v>
+        <v>834</v>
       </c>
       <c r="C303" t="s">
-        <v>475</v>
+        <v>835</v>
       </c>
       <c r="D303" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E303" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>416</v>
+        <v>844</v>
       </c>
       <c r="B304" t="s">
-        <v>417</v>
-      </c>
-      <c r="C304" t="s">
-        <v>418</v>
-      </c>
-      <c r="D304" t="s">
-        <v>82</v>
+        <v>845</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E304" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="B305" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="C305" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="D305" t="s">
         <v>6</v>
@@ -9003,16 +9015,16 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B306" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C306" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="D306" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E306" t="s">
         <v>479</v>
@@ -9020,13 +9032,13 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B307" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C307" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D307" t="s">
         <v>6</v>
@@ -9037,13 +9049,13 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B308" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C308" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D308" t="s">
         <v>6</v>
@@ -9054,13 +9066,13 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B309" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C309" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D309" t="s">
         <v>6</v>
@@ -9071,13 +9083,13 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B310" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C310" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D310" t="s">
         <v>6</v>
@@ -9088,13 +9100,13 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B311" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C311" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D311" t="s">
         <v>6</v>
@@ -9105,16 +9117,16 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B312" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C312" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D312" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E312" t="s">
         <v>479</v>
@@ -9122,13 +9134,13 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="B313" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C313" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D313" t="s">
         <v>6</v>
@@ -9139,16 +9151,16 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B314" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C314" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D314" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E314" t="s">
         <v>479</v>
@@ -9156,13 +9168,13 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B315" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C315" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D315" t="s">
         <v>6</v>
@@ -9173,16 +9185,16 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B316" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="C316" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="D316" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E316" t="s">
         <v>479</v>
@@ -9190,13 +9202,13 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B317" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C317" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D317" t="s">
         <v>6</v>
@@ -9207,13 +9219,13 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B318" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C318" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D318" t="s">
         <v>6</v>
@@ -9224,13 +9236,13 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B319" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C319" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D319" t="s">
         <v>6</v>
@@ -9241,13 +9253,13 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="B320" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C320" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="D320" t="s">
         <v>6</v>
@@ -9258,13 +9270,13 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B321" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C321" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D321" t="s">
         <v>6</v>
@@ -9275,13 +9287,13 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="B322" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="C322" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="D322" t="s">
         <v>6</v>
@@ -9292,16 +9304,16 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B323" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="C323" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="D323" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E323" t="s">
         <v>479</v>
@@ -9309,16 +9321,16 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="B324" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="C324" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="D324" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E324" t="s">
         <v>479</v>
@@ -9326,50 +9338,50 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="B325" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="C325" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="D325" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E325" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>522</v>
+        <v>413</v>
       </c>
       <c r="B326" t="s">
-        <v>523</v>
+        <v>414</v>
       </c>
       <c r="C326" t="s">
-        <v>524</v>
+        <v>415</v>
       </c>
       <c r="D326" t="s">
         <v>71</v>
       </c>
       <c r="E326" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B327" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C327" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D327" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E327" t="s">
         <v>546</v>
@@ -9377,16 +9389,16 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="B328" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C328" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D328" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E328" t="s">
         <v>546</v>
@@ -9394,16 +9406,16 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B329" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C329" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D329" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E329" t="s">
         <v>546</v>
@@ -9411,13 +9423,13 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="B330" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="C330" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="D330" t="s">
         <v>6</v>
@@ -9428,13 +9440,13 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B331" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C331" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D331" t="s">
         <v>6</v>
@@ -9445,13 +9457,13 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="B332" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="C332" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
@@ -9462,13 +9474,13 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="B333" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="C333" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="D333" t="s">
         <v>6</v>
@@ -9479,16 +9491,16 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B334" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C334" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D334" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E334" t="s">
         <v>546</v>
@@ -9496,16 +9508,16 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="B335" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="C335" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="D335" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E335" t="s">
         <v>546</v>
@@ -9513,16 +9525,16 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="B336" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="C336" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="D336" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E336" t="s">
         <v>546</v>
@@ -9530,16 +9542,16 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B337" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C337" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D337" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E337" t="s">
         <v>546</v>
@@ -9547,13 +9559,13 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B338" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C338" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D338" t="s">
         <v>6</v>
@@ -9564,13 +9576,13 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B339" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C339" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="D339" t="s">
         <v>6</v>
@@ -9581,16 +9593,16 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="B340" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="C340" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="D340" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E340" t="s">
         <v>546</v>
@@ -9598,16 +9610,16 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="B341" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="C341" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="D341" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E341" t="s">
         <v>546</v>
@@ -9615,16 +9627,16 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="B342" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="C342" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="D342" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E342" t="s">
         <v>546</v>
@@ -9632,13 +9644,13 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B343" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C343" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D343" t="s">
         <v>71</v>
@@ -9649,16 +9661,16 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="B344" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C344" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="D344" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E344" t="s">
         <v>546</v>
@@ -9666,13 +9678,13 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="B345" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="C345" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="D345" t="s">
         <v>71</v>
@@ -9683,16 +9695,16 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="B346" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="C346" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="D346" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E346" t="s">
         <v>546</v>
@@ -9700,47 +9712,47 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="B347" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="C347" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="D347" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E347" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>571</v>
+        <v>507</v>
       </c>
       <c r="B348" t="s">
-        <v>572</v>
+        <v>508</v>
       </c>
       <c r="C348" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="D348" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E348" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="B349" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C349" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="D349" t="s">
         <v>6</v>
@@ -9751,16 +9763,16 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B350" t="s">
-        <v>24</v>
+        <v>572</v>
       </c>
       <c r="C350" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="D350" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E350" t="s">
         <v>594</v>
@@ -9768,16 +9780,16 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="B351" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C351" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="D351" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E351" t="s">
         <v>594</v>
@@ -9785,16 +9797,16 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B352" t="s">
-        <v>576</v>
+        <v>24</v>
       </c>
       <c r="C352" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D352" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E352" t="s">
         <v>594</v>
@@ -9802,16 +9814,16 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="B353" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="C353" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="D353" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E353" t="s">
         <v>594</v>
@@ -9819,16 +9831,16 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B354" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C354" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D354" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E354" t="s">
         <v>594</v>
@@ -9836,16 +9848,16 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="B355" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="C355" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="D355" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E355" t="s">
         <v>594</v>
@@ -9853,13 +9865,13 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="B356" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="C356" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="D356" t="s">
         <v>6</v>
@@ -9870,13 +9882,13 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B357" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C357" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D357" t="s">
         <v>82</v>
@@ -9887,16 +9899,16 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B358" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C358" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D358" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E358" t="s">
         <v>594</v>
@@ -9904,16 +9916,16 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="B359" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="C359" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="D359" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E359" t="s">
         <v>594</v>
@@ -9921,16 +9933,16 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="C360" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="D360" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E360" t="s">
         <v>594</v>
@@ -9938,13 +9950,13 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B361" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C361" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D361" t="s">
         <v>6</v>
@@ -9955,16 +9967,16 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="B362" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C362" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="D362" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E362" t="s">
         <v>594</v>
@@ -9972,47 +9984,47 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="B363" t="s">
-        <v>620</v>
+        <v>569</v>
       </c>
       <c r="C363" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="D363" t="s">
         <v>6</v>
       </c>
       <c r="E363" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>646</v>
+        <v>550</v>
       </c>
       <c r="B364" t="s">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="C364" t="s">
-        <v>648</v>
+        <v>552</v>
       </c>
       <c r="D364" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E364" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="B365" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="C365" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
@@ -10023,13 +10035,13 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="B366" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="C366" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="D366" t="s">
         <v>6</v>
@@ -10040,16 +10052,16 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B367" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C367" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D367" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E367" t="s">
         <v>652</v>
@@ -10057,13 +10069,13 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="B368" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="C368" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="D368" t="s">
         <v>6</v>
@@ -10074,13 +10086,13 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="B369" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="C369" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="D369" t="s">
         <v>71</v>
@@ -10091,16 +10103,16 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B370" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="C370" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D370" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E370" t="s">
         <v>652</v>
@@ -10108,16 +10120,16 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B371" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C371" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D371" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E371" t="s">
         <v>652</v>
@@ -10125,16 +10137,16 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B372" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="C372" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D372" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E372" t="s">
         <v>652</v>
@@ -10142,16 +10154,16 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="B373" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="C373" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="D373" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E373" t="s">
         <v>652</v>
@@ -10159,16 +10171,16 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="B374" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="C374" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="D374" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E374" t="s">
         <v>652</v>
@@ -10176,16 +10188,16 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B375" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C375" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D375" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E375" t="s">
         <v>652</v>
@@ -10193,16 +10205,16 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B376" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C376" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D376" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E376" t="s">
         <v>652</v>
@@ -10210,16 +10222,16 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="B377" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="C377" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="D377" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E377" t="s">
         <v>652</v>
@@ -10227,16 +10239,16 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B378" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="C378" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="D378" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E378" t="s">
         <v>652</v>
@@ -10244,13 +10256,13 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B379" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C379" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D379" t="s">
         <v>82</v>
@@ -10261,13 +10273,13 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="B380" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="C380" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D380" t="s">
         <v>6</v>
@@ -10278,13 +10290,13 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="B381" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="C381" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="D381" t="s">
         <v>82</v>
@@ -10295,50 +10307,50 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
-        <v>1078</v>
+        <v>610</v>
       </c>
       <c r="B382" t="s">
-        <v>1079</v>
+        <v>611</v>
       </c>
       <c r="C382" t="s">
-        <v>1080</v>
+        <v>612</v>
       </c>
       <c r="D382" t="s">
         <v>6</v>
       </c>
-      <c r="E382" s="4" t="s">
-        <v>1100</v>
+      <c r="E382" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" t="s">
-        <v>1083</v>
+        <v>607</v>
       </c>
       <c r="B383" t="s">
-        <v>1084</v>
+        <v>608</v>
       </c>
       <c r="C383" t="s">
-        <v>1085</v>
+        <v>609</v>
       </c>
       <c r="D383" t="s">
-        <v>71</v>
-      </c>
-      <c r="E383" s="4" t="s">
-        <v>1100</v>
+        <v>82</v>
+      </c>
+      <c r="E383" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="B384" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="C384" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="D384" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>1100</v>
@@ -10346,13 +10358,13 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="B385" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="C385" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="D385" t="s">
         <v>71</v>
@@ -10363,16 +10375,16 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B386" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C386" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D386" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E386" s="4" t="s">
         <v>1100</v>
@@ -10380,16 +10392,16 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B387" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C387" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D387" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E387" s="4" t="s">
         <v>1100</v>
@@ -10397,13 +10409,13 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B388" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C388" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="D388" t="s">
         <v>6</v>
@@ -10414,16 +10426,16 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B389" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C389" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D389" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E389" s="4" t="s">
         <v>1100</v>
@@ -10431,16 +10443,16 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="B390" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="C390" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="D390" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E390" s="4" t="s">
         <v>1100</v>
@@ -10448,13 +10460,13 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
-        <v>1072</v>
+        <v>1098</v>
       </c>
       <c r="B391" t="s">
-        <v>1072</v>
+        <v>1098</v>
       </c>
       <c r="C391" t="s">
-        <v>1073</v>
+        <v>1099</v>
       </c>
       <c r="D391" t="s">
         <v>80</v>
@@ -10465,16 +10477,16 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="B392" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="C392" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="D392" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E392" s="4" t="s">
         <v>1100</v>
@@ -10482,13 +10494,13 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="B393" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="C393" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="D393" t="s">
         <v>80</v>
@@ -10499,16 +10511,16 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B394" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="C394" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="D394" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E394" s="4" t="s">
         <v>1100</v>
@@ -10516,16 +10528,16 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="B395" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="C395" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="D395" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E395" s="4" t="s">
         <v>1100</v>
@@ -10533,47 +10545,47 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
-        <v>939</v>
+        <v>1088</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>1088</v>
       </c>
       <c r="C396" t="s">
-        <v>940</v>
-      </c>
-      <c r="D396" s="4" t="s">
-        <v>6</v>
+        <v>1089</v>
+      </c>
+      <c r="D396" t="s">
+        <v>80</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
-        <v>919</v>
+        <v>1090</v>
       </c>
       <c r="B397" t="s">
-        <v>920</v>
+        <v>1091</v>
       </c>
       <c r="C397" t="s">
-        <v>921</v>
-      </c>
-      <c r="D397" s="4" t="s">
-        <v>82</v>
+        <v>1092</v>
+      </c>
+      <c r="D397" t="s">
+        <v>6</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="B398" t="s">
-        <v>929</v>
+        <v>9</v>
       </c>
       <c r="C398" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>6</v>
@@ -10584,13 +10596,13 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="B399" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C399" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>82</v>
@@ -10601,13 +10613,13 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="B400" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="C400" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>6</v>
@@ -10618,16 +10630,16 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="B401" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
       <c r="C401" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E401" s="4" t="s">
         <v>949</v>
@@ -10635,13 +10647,13 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="B402" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="C402" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>6</v>
@@ -10652,13 +10664,13 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="B403" t="s">
-        <v>847</v>
+        <v>917</v>
       </c>
       <c r="C403" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>6</v>
@@ -10669,13 +10681,13 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="B404" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="C404" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>6</v>
@@ -10686,16 +10698,16 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B405" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="C405" t="s">
-        <v>945</v>
-      </c>
-      <c r="D405" t="s">
-        <v>82</v>
+        <v>938</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E405" s="4" t="s">
         <v>949</v>
@@ -10703,15 +10715,15 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
       <c r="B406" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="C406" t="s">
-        <v>948</v>
-      </c>
-      <c r="D406" t="s">
+        <v>924</v>
+      </c>
+      <c r="D406" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E406" s="4" t="s">
@@ -10720,16 +10732,16 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407" t="s">
-        <v>913</v>
+        <v>944</v>
       </c>
       <c r="B407" t="s">
-        <v>914</v>
+        <v>813</v>
       </c>
       <c r="C407" t="s">
-        <v>915</v>
-      </c>
-      <c r="D407" s="4" t="s">
-        <v>6</v>
+        <v>945</v>
+      </c>
+      <c r="D407" t="s">
+        <v>82</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>949</v>
@@ -10737,23 +10749,57 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
       <c r="B408" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="C408" t="s">
-        <v>927</v>
-      </c>
-      <c r="D408" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D408" t="s">
         <v>6</v>
       </c>
       <c r="E408" s="4" t="s">
         <v>949</v>
       </c>
     </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>913</v>
+      </c>
+      <c r="B409" t="s">
+        <v>914</v>
+      </c>
+      <c r="C409" t="s">
+        <v>915</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E409" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>925</v>
+      </c>
+      <c r="B410" t="s">
+        <v>926</v>
+      </c>
+      <c r="C410" t="s">
+        <v>927</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E167">
+  <autoFilter ref="A1:E169">
     <sortState ref="A2:E396">
       <sortCondition ref="E1:E155"/>
     </sortState>

--- a/XcomPerkManager/XComAbilityList.xlsx
+++ b/XcomPerkManager/XComAbilityList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$188</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1203">
   <si>
     <t>Name</t>
   </si>
@@ -3460,6 +3460,174 @@
   </si>
   <si>
     <t>Armor Piercer (WIP)</t>
+  </si>
+  <si>
+    <t>Fire LMG (WIP)</t>
+  </si>
+  <si>
+    <t>F_LMG_UnmountedShot</t>
+  </si>
+  <si>
+    <t>Fire the LMG unmounted, resulting in -30 aim.</t>
+  </si>
+  <si>
+    <t>F_LMG_MountedShot</t>
+  </si>
+  <si>
+    <t>Fire the LMG while mounted.</t>
+  </si>
+  <si>
+    <t>F_LMG_Mount</t>
+  </si>
+  <si>
+    <t>Mount LMG (WIP)</t>
+  </si>
+  <si>
+    <t>Mount the LMG. All primary weapon actions have increased aim, but you cannot move. Costs one action and does not end the turn when used as a first action.</t>
+  </si>
+  <si>
+    <t>F_LMG_Unmount</t>
+  </si>
+  <si>
+    <t>Unmount LMG (WIP)</t>
+  </si>
+  <si>
+    <t>Unmount the LMG. Free action.</t>
+  </si>
+  <si>
+    <t>F_LMG_Callfire</t>
+  </si>
+  <si>
+    <t>Callfire (WIP)</t>
+  </si>
+  <si>
+    <t>While mounted, the LMG gains squadsight.</t>
+  </si>
+  <si>
+    <t>F_LMG_ControlledFire</t>
+  </si>
+  <si>
+    <t>Controlled Fire (WIP)</t>
+  </si>
+  <si>
+    <t>While mounted, the LMG can be fired with one action point, and does not end the turn when used as a first action.</t>
+  </si>
+  <si>
+    <t>F_LMG_HeavyCompensation</t>
+  </si>
+  <si>
+    <t>Heavy Compensation (WIP)</t>
+  </si>
+  <si>
+    <t>The aim penalty for firing the LMG umounted is reduced to -15 aim.</t>
+  </si>
+  <si>
+    <t>F_RL_FireRocket</t>
+  </si>
+  <si>
+    <t>Fire Rocket (WIP)</t>
+  </si>
+  <si>
+    <t>Fire a rocket that deals 4-7 damage.</t>
+  </si>
+  <si>
+    <t>F_RL_RuptureRocket</t>
+  </si>
+  <si>
+    <t>Rupture Rocket (WIP)</t>
+  </si>
+  <si>
+    <t>Fire a rocket that deals 3-5 damage and ruptures targets, but does not destroy cover.</t>
+  </si>
+  <si>
+    <t>F_RL_ScramblerRocket</t>
+  </si>
+  <si>
+    <t>Scrambler Rocket (WIP)</t>
+  </si>
+  <si>
+    <t>Fire a rocket that does 2-4 damage to organics and 4-8 damage to robots. Stuns robots for 2 actions.</t>
+  </si>
+  <si>
+    <t>F_RL_Fully Loaded</t>
+  </si>
+  <si>
+    <t>Fully Loaded (WIP)</t>
+  </si>
+  <si>
+    <t>All rockets get an additional use.</t>
+  </si>
+  <si>
+    <t>F_RL_HeavyRain</t>
+  </si>
+  <si>
+    <t>Heavy Rain (WIP)</t>
+  </si>
+  <si>
+    <t>All rockets have increased area of effect.</t>
+  </si>
+  <si>
+    <t>F_RL_BoostedWarheads</t>
+  </si>
+  <si>
+    <t>Boosted Warheads (WIP)</t>
+  </si>
+  <si>
+    <t>All rockets get +1 damage.</t>
+  </si>
+  <si>
+    <t>F_MindBlast</t>
+  </si>
+  <si>
+    <t>F_EmpoweredBlast</t>
+  </si>
+  <si>
+    <t>F_StrengthInNumbers</t>
+  </si>
+  <si>
+    <t>F_Recharge</t>
+  </si>
+  <si>
+    <t>F_AmplifiedShot</t>
+  </si>
+  <si>
+    <t>Mind Blast</t>
+  </si>
+  <si>
+    <t>Deal 1/2/3 damage based on secondary weapon tier and remove one Action Point from the target for next turn. 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Empowered Blast</t>
+  </si>
+  <si>
+    <t>Mind Blast now applies Rupture to the target.</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Killing an enemy with your primary weapon reduces the cooldown of all abilities by 1 turn.</t>
+  </si>
+  <si>
+    <t>Gain 3 aim for each ally you can see, up to a maximum of 15 aim.</t>
+  </si>
+  <si>
+    <t>Strength in Numbers</t>
+  </si>
+  <si>
+    <t>Amplified Shot</t>
+  </si>
+  <si>
+    <t>Fire a shot with +30 crit and +1/2/3 damage based on weapon tier. Increases cooldown of all other abilities by 1.</t>
+  </si>
+  <si>
+    <t>F_Ignite</t>
+  </si>
+  <si>
+    <t>Ignite</t>
+  </si>
+  <si>
+    <t>Light an organic enemy on fire. 4 turn cooldown.</t>
   </si>
 </sst>
 </file>
@@ -3804,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O410"/>
+  <dimension ref="A1:O429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4731,1036 +4899,1036 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>897</v>
+        <v>1148</v>
       </c>
       <c r="B54" t="s">
-        <v>898</v>
+        <v>1147</v>
       </c>
       <c r="C54" t="s">
-        <v>899</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>6</v>
+        <v>1149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>886</v>
+        <v>1150</v>
       </c>
       <c r="B55" t="s">
-        <v>886</v>
+        <v>1147</v>
       </c>
       <c r="C55" t="s">
-        <v>887</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>6</v>
+        <v>1151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>907</v>
+        <v>1152</v>
       </c>
       <c r="B56" t="s">
-        <v>908</v>
+        <v>1153</v>
       </c>
       <c r="C56" t="s">
-        <v>909</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>6</v>
+        <v>1154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>884</v>
+        <v>1155</v>
       </c>
       <c r="B57" t="s">
-        <v>884</v>
+        <v>1156</v>
       </c>
       <c r="C57" t="s">
-        <v>885</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>82</v>
+        <v>1157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>882</v>
+        <v>1161</v>
       </c>
       <c r="B58" t="s">
-        <v>882</v>
+        <v>1162</v>
       </c>
       <c r="C58" t="s">
-        <v>883</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>6</v>
+        <v>1163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>900</v>
+        <v>1158</v>
       </c>
       <c r="B59" t="s">
-        <v>901</v>
+        <v>1159</v>
       </c>
       <c r="C59" t="s">
-        <v>902</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>6</v>
+        <v>1160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>880</v>
+        <v>1164</v>
       </c>
       <c r="B60" t="s">
-        <v>627</v>
+        <v>1165</v>
       </c>
       <c r="C60" t="s">
-        <v>881</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>186</v>
+        <v>1166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>903</v>
+        <v>1167</v>
       </c>
       <c r="B61" t="s">
-        <v>903</v>
+        <v>1168</v>
       </c>
       <c r="C61" t="s">
-        <v>904</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>6</v>
+        <v>1169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>895</v>
+        <v>1170</v>
       </c>
       <c r="B62" t="s">
-        <v>895</v>
+        <v>1171</v>
       </c>
       <c r="C62" t="s">
-        <v>896</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>80</v>
+        <v>1172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>890</v>
+        <v>1173</v>
       </c>
       <c r="B63" t="s">
-        <v>891</v>
+        <v>1174</v>
       </c>
       <c r="C63" t="s">
-        <v>892</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>82</v>
+        <v>1175</v>
+      </c>
+      <c r="D63" t="s">
+        <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>893</v>
+        <v>1176</v>
       </c>
       <c r="B64" t="s">
-        <v>893</v>
+        <v>1177</v>
       </c>
       <c r="C64" t="s">
-        <v>894</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>6</v>
+        <v>1178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>910</v>
+        <v>1179</v>
       </c>
       <c r="B65" t="s">
-        <v>911</v>
+        <v>1180</v>
       </c>
       <c r="C65" t="s">
-        <v>912</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>6</v>
+        <v>1181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>888</v>
+        <v>1182</v>
       </c>
       <c r="B66" t="s">
-        <v>888</v>
+        <v>1183</v>
       </c>
       <c r="C66" t="s">
-        <v>889</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>6</v>
+        <v>1184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>905</v>
+        <v>1185</v>
       </c>
       <c r="B67" t="s">
-        <v>905</v>
+        <v>1190</v>
       </c>
       <c r="C67" t="s">
-        <v>906</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>82</v>
+        <v>1191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>523</v>
+        <v>1186</v>
       </c>
       <c r="B68" t="s">
-        <v>523</v>
+        <v>1192</v>
       </c>
       <c r="C68" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D68" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D68" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>1025</v>
+      <c r="E68" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>997</v>
+        <v>1187</v>
       </c>
       <c r="B69" t="s">
-        <v>998</v>
+        <v>1197</v>
       </c>
       <c r="C69" t="s">
-        <v>999</v>
+        <v>1196</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>1025</v>
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>991</v>
+        <v>1188</v>
       </c>
       <c r="B70" t="s">
-        <v>992</v>
+        <v>1194</v>
       </c>
       <c r="C70" t="s">
-        <v>993</v>
+        <v>1195</v>
       </c>
       <c r="D70" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>1025</v>
+      <c r="E70" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>1022</v>
+        <v>1189</v>
       </c>
       <c r="B71" t="s">
-        <v>1023</v>
+        <v>1198</v>
       </c>
       <c r="C71" t="s">
-        <v>1024</v>
+        <v>1199</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>1025</v>
+        <v>82</v>
+      </c>
+      <c r="E71" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>1013</v>
+        <v>1200</v>
       </c>
       <c r="B72" t="s">
-        <v>602</v>
+        <v>1201</v>
       </c>
       <c r="C72" t="s">
-        <v>1014</v>
+        <v>1202</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1025</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>1019</v>
+        <v>897</v>
       </c>
       <c r="B73" t="s">
-        <v>1020</v>
+        <v>898</v>
       </c>
       <c r="C73" t="s">
-        <v>1021</v>
+        <v>899</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>1025</v>
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>1005</v>
+        <v>886</v>
       </c>
       <c r="B74" t="s">
-        <v>1005</v>
+        <v>886</v>
       </c>
       <c r="C74" t="s">
-        <v>1006</v>
+        <v>887</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>1025</v>
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>1002</v>
+        <v>907</v>
       </c>
       <c r="B75" t="s">
-        <v>1003</v>
+        <v>908</v>
       </c>
       <c r="C75" t="s">
-        <v>1004</v>
+        <v>909</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>1025</v>
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>1000</v>
+        <v>884</v>
       </c>
       <c r="B76" t="s">
-        <v>1000</v>
+        <v>884</v>
       </c>
       <c r="C76" t="s">
-        <v>1001</v>
+        <v>885</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>1025</v>
+        <v>82</v>
+      </c>
+      <c r="E76" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>1015</v>
+        <v>882</v>
       </c>
       <c r="B77" t="s">
-        <v>1016</v>
+        <v>882</v>
       </c>
       <c r="C77" t="s">
-        <v>1017</v>
+        <v>883</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>1025</v>
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>988</v>
+        <v>900</v>
       </c>
       <c r="B78" t="s">
-        <v>989</v>
+        <v>901</v>
       </c>
       <c r="C78" t="s">
-        <v>990</v>
-      </c>
-      <c r="D78" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>1025</v>
+        <v>902</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>994</v>
+        <v>880</v>
       </c>
       <c r="B79" t="s">
-        <v>995</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>996</v>
+        <v>627</v>
+      </c>
+      <c r="C79" t="s">
+        <v>881</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>1025</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>1007</v>
+        <v>903</v>
       </c>
       <c r="B80" t="s">
-        <v>1008</v>
+        <v>903</v>
       </c>
       <c r="C80" t="s">
-        <v>1009</v>
+        <v>904</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>1025</v>
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>1010</v>
+        <v>895</v>
       </c>
       <c r="B81" t="s">
-        <v>1011</v>
+        <v>895</v>
       </c>
       <c r="C81" t="s">
-        <v>1012</v>
+        <v>896</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>1025</v>
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>967</v>
+        <v>890</v>
       </c>
       <c r="B82" t="s">
-        <v>968</v>
+        <v>891</v>
       </c>
       <c r="C82" t="s">
-        <v>969</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>987</v>
+        <v>892</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>953</v>
+        <v>893</v>
       </c>
       <c r="B83" t="s">
-        <v>336</v>
+        <v>893</v>
       </c>
       <c r="C83" t="s">
-        <v>954</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>987</v>
+        <v>894</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>984</v>
+        <v>910</v>
       </c>
       <c r="B84" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="C84" t="s">
-        <v>986</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>987</v>
+        <v>912</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>976</v>
+        <v>888</v>
       </c>
       <c r="B85" t="s">
-        <v>977</v>
+        <v>888</v>
       </c>
       <c r="C85" t="s">
-        <v>978</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>987</v>
+        <v>889</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>964</v>
+        <v>905</v>
       </c>
       <c r="B86" t="s">
-        <v>965</v>
+        <v>905</v>
       </c>
       <c r="C86" t="s">
-        <v>966</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>987</v>
+        <v>906</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>970</v>
+        <v>523</v>
       </c>
       <c r="B87" t="s">
-        <v>971</v>
+        <v>523</v>
       </c>
       <c r="C87" t="s">
-        <v>972</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
+        <v>1018</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>950</v>
+        <v>997</v>
       </c>
       <c r="B88" t="s">
-        <v>951</v>
+        <v>998</v>
       </c>
       <c r="C88" t="s">
-        <v>952</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
+        <v>999</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="B89" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
       <c r="C89" t="s">
-        <v>960</v>
+        <v>993</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>981</v>
+        <v>1022</v>
       </c>
       <c r="B90" t="s">
-        <v>982</v>
+        <v>1023</v>
       </c>
       <c r="C90" t="s">
-        <v>983</v>
-      </c>
-      <c r="D90" t="s">
-        <v>82</v>
+        <v>1024</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
       <c r="B91" t="s">
-        <v>974</v>
+        <v>602</v>
       </c>
       <c r="C91" t="s">
-        <v>975</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
+        <v>1014</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>961</v>
+        <v>1019</v>
       </c>
       <c r="B92" t="s">
-        <v>962</v>
+        <v>1020</v>
       </c>
       <c r="C92" t="s">
-        <v>963</v>
-      </c>
-      <c r="D92" t="s">
-        <v>80</v>
+        <v>1021</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>979</v>
+        <v>1005</v>
       </c>
       <c r="B93" t="s">
-        <v>789</v>
+        <v>1005</v>
       </c>
       <c r="C93" t="s">
-        <v>980</v>
-      </c>
-      <c r="D93" t="s">
-        <v>6</v>
+        <v>1006</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>955</v>
+        <v>1002</v>
       </c>
       <c r="B94" t="s">
-        <v>956</v>
+        <v>1003</v>
       </c>
       <c r="C94" t="s">
-        <v>957</v>
-      </c>
-      <c r="D94" t="s">
-        <v>6</v>
+        <v>1004</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="B95" t="s">
-        <v>391</v>
+        <v>1000</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
-      </c>
-      <c r="D95" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E95" t="s">
-        <v>54</v>
+      <c r="E95" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>1015</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>1016</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" t="s">
-        <v>82</v>
-      </c>
-      <c r="E96" t="s">
-        <v>54</v>
+        <v>1017</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>988</v>
       </c>
       <c r="B97" t="s">
-        <v>380</v>
+        <v>989</v>
       </c>
       <c r="C97" t="s">
-        <v>381</v>
+        <v>990</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E97" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>994</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
-      </c>
-      <c r="C98" t="s">
-        <v>326</v>
-      </c>
-      <c r="D98" t="s">
-        <v>82</v>
-      </c>
-      <c r="E98" t="s">
-        <v>54</v>
+        <v>995</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>1007</v>
       </c>
       <c r="B99" t="s">
-        <v>385</v>
+        <v>1008</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
-      </c>
-      <c r="D99" t="s">
-        <v>71</v>
-      </c>
-      <c r="E99" t="s">
-        <v>54</v>
+        <v>1009</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>393</v>
+        <v>1010</v>
       </c>
       <c r="B100" t="s">
-        <v>394</v>
+        <v>1011</v>
       </c>
       <c r="C100" t="s">
-        <v>395</v>
-      </c>
-      <c r="D100" t="s">
-        <v>80</v>
-      </c>
-      <c r="E100" t="s">
-        <v>54</v>
+        <v>1012</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>967</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>968</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>969</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
-      </c>
-      <c r="E101" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>953</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>954</v>
       </c>
       <c r="D102" t="s">
-        <v>82</v>
-      </c>
-      <c r="E102" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>984</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>985</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>986</v>
       </c>
       <c r="D103" t="s">
-        <v>82</v>
-      </c>
-      <c r="E103" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>976</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>977</v>
       </c>
       <c r="C104" t="s">
-        <v>263</v>
+        <v>978</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>964</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>965</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>966</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
-      </c>
-      <c r="E105" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>305</v>
+        <v>970</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>971</v>
       </c>
       <c r="C106" t="s">
-        <v>307</v>
+        <v>972</v>
       </c>
       <c r="D106" t="s">
-        <v>71</v>
-      </c>
-      <c r="E106" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>349</v>
+        <v>950</v>
       </c>
       <c r="B107" t="s">
-        <v>350</v>
+        <v>951</v>
       </c>
       <c r="C107" t="s">
-        <v>351</v>
+        <v>952</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
-      </c>
-      <c r="E107" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>371</v>
+        <v>958</v>
       </c>
       <c r="B108" t="s">
-        <v>372</v>
+        <v>959</v>
       </c>
       <c r="C108" t="s">
-        <v>373</v>
+        <v>960</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
       </c>
-      <c r="E108" t="s">
-        <v>54</v>
+      <c r="E108" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>981</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>982</v>
       </c>
       <c r="C109" t="s">
-        <v>304</v>
+        <v>983</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
-      </c>
-      <c r="E109" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>973</v>
       </c>
       <c r="B110" t="s">
-        <v>343</v>
+        <v>974</v>
       </c>
       <c r="C110" t="s">
-        <v>344</v>
+        <v>975</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
-      </c>
-      <c r="E110" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>961</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>962</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>963</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
-      </c>
-      <c r="E111" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>297</v>
+        <v>979</v>
       </c>
       <c r="B112" t="s">
-        <v>298</v>
+        <v>789</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>980</v>
       </c>
       <c r="D112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>335</v>
+        <v>955</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>956</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
+        <v>957</v>
       </c>
       <c r="D113" t="s">
-        <v>80</v>
-      </c>
-      <c r="E113" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="D114" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E114" t="s">
         <v>54</v>
@@ -5768,13 +5936,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>327</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>329</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s">
         <v>82</v>
@@ -5785,16 +5953,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C116" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D116" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E116" t="s">
         <v>54</v>
@@ -5802,16 +5970,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="C117" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="D117" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E117" t="s">
         <v>54</v>
@@ -5819,16 +5987,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C118" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E118" t="s">
         <v>54</v>
@@ -5836,13 +6004,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B119" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -5853,16 +6021,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E120" t="s">
         <v>54</v>
@@ -5870,13 +6038,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B121" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
         <v>82</v>
@@ -5887,16 +6055,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
         <v>54</v>
@@ -5904,16 +6072,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E123" t="s">
         <v>54</v>
@@ -5921,16 +6089,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>355</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>355</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E124" t="s">
         <v>54</v>
@@ -5938,16 +6106,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="B125" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="D125" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E125" t="s">
         <v>54</v>
@@ -5955,13 +6123,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B126" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="C126" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -5972,13 +6140,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="C127" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -5989,16 +6157,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="B128" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="C128" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="D128" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E128" t="s">
         <v>54</v>
@@ -6006,16 +6174,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="D129" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E129" t="s">
         <v>54</v>
@@ -6023,16 +6191,16 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E130" t="s">
         <v>54</v>
@@ -6040,16 +6208,16 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="B131" t="s">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="C131" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E131" t="s">
         <v>54</v>
@@ -6057,16 +6225,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C132" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="D132" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E132" t="s">
         <v>54</v>
@@ -6074,16 +6242,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="D133" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E133" t="s">
         <v>54</v>
@@ -6091,16 +6259,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="D134" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E134" t="s">
         <v>54</v>
@@ -6108,16 +6276,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="C135" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="D135" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E135" t="s">
         <v>54</v>
@@ -6125,16 +6293,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="D136" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E136" t="s">
         <v>54</v>
@@ -6142,16 +6310,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>399</v>
+        <v>288</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="C137" t="s">
-        <v>401</v>
+        <v>290</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E137" t="s">
         <v>54</v>
@@ -6159,16 +6327,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>63</v>
+        <v>396</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>397</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>398</v>
       </c>
       <c r="D138" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E138" t="s">
         <v>54</v>
@@ -6176,16 +6344,16 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>348</v>
+        <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E139" t="s">
         <v>54</v>
@@ -6193,13 +6361,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C140" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D140" t="s">
         <v>82</v>
@@ -6210,16 +6378,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="B141" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="C141" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="D141" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E141" t="s">
         <v>54</v>
@@ -6227,13 +6395,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="C142" t="s">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
         <v>80</v>
@@ -6244,16 +6412,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="C143" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E143" t="s">
         <v>54</v>
@@ -6261,16 +6429,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="B144" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="C144" t="s">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="D144" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E144" t="s">
         <v>54</v>
@@ -6278,16 +6446,16 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="C145" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="D145" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E145" t="s">
         <v>54</v>
@@ -6295,13 +6463,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="C146" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="D146" t="s">
         <v>80</v>
@@ -6312,16 +6480,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C147" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="D147" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E147" t="s">
         <v>54</v>
@@ -6329,16 +6497,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D148" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E148" t="s">
         <v>54</v>
@@ -6346,13 +6514,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c r="B149" t="s">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="C149" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
         <v>80</v>
@@ -6363,13 +6531,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="B150" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="C150" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="D150" t="s">
         <v>80</v>
@@ -6380,16 +6548,16 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E151" t="s">
         <v>54</v>
@@ -6397,16 +6565,16 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>312</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E152" t="s">
         <v>54</v>
@@ -6414,13 +6582,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -6431,16 +6599,16 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B154" t="s">
-        <v>195</v>
+        <v>332</v>
       </c>
       <c r="C154" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E154" t="s">
         <v>54</v>
@@ -6448,16 +6616,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="B155" t="s">
-        <v>73</v>
+        <v>388</v>
       </c>
       <c r="C155" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E155" t="s">
         <v>54</v>
@@ -6465,16 +6633,16 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="C156" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="D156" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E156" t="s">
         <v>54</v>
@@ -6482,13 +6650,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
         <v>82</v>
@@ -6499,16 +6667,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="B158" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="C158" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="D158" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E158" t="s">
         <v>54</v>
@@ -6516,16 +6684,16 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="B159" t="s">
-        <v>358</v>
+        <v>255</v>
       </c>
       <c r="C159" t="s">
-        <v>359</v>
+        <v>261</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E159" t="s">
         <v>54</v>
@@ -6533,13 +6701,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="C160" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="D160" t="s">
         <v>82</v>
@@ -6550,16 +6718,16 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>408</v>
+        <v>58</v>
       </c>
       <c r="B161" t="s">
-        <v>409</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>410</v>
+        <v>93</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E161" t="s">
         <v>54</v>
@@ -6567,13 +6735,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B162" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C162" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D162" t="s">
         <v>82</v>
@@ -6584,16 +6752,16 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="B163" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="C163" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="D163" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E163" t="s">
         <v>54</v>
@@ -6601,13 +6769,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="D164" t="s">
         <v>82</v>
@@ -6618,16 +6786,16 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="C165" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="D165" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E165" t="s">
         <v>54</v>
@@ -6635,13 +6803,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>405</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="D166" t="s">
         <v>71</v>
@@ -6652,16 +6820,16 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="B167" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C167" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D167" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E167" t="s">
         <v>54</v>
@@ -6669,16 +6837,16 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="B168" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="C168" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="D168" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E168" t="s">
         <v>54</v>
@@ -6686,16 +6854,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B169" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D169" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E169" t="s">
         <v>54</v>
@@ -6703,16 +6871,16 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="D170" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E170" t="s">
         <v>54</v>
@@ -6720,16 +6888,16 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E171" t="s">
         <v>54</v>
@@ -6737,1104 +6905,1104 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>871</v>
+        <v>360</v>
       </c>
       <c r="B172" t="s">
-        <v>872</v>
+        <v>360</v>
       </c>
       <c r="C172" t="s">
-        <v>873</v>
+        <v>361</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>879</v>
+        <v>80</v>
+      </c>
+      <c r="E172" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>868</v>
+        <v>319</v>
       </c>
       <c r="B173" t="s">
-        <v>869</v>
+        <v>195</v>
       </c>
       <c r="C173" t="s">
-        <v>870</v>
+        <v>320</v>
       </c>
       <c r="D173" t="s">
-        <v>71</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>879</v>
+        <v>80</v>
+      </c>
+      <c r="E173" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>848</v>
+        <v>411</v>
       </c>
       <c r="B174" t="s">
-        <v>849</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>879</v>
+        <v>73</v>
+      </c>
+      <c r="C174" t="s">
+        <v>86</v>
+      </c>
+      <c r="D174" t="s">
+        <v>80</v>
+      </c>
+      <c r="E174" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>856</v>
+        <v>67</v>
       </c>
       <c r="B175" t="s">
-        <v>857</v>
+        <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>858</v>
-      </c>
-      <c r="D175" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" t="s">
         <v>71</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>879</v>
+      <c r="E175" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>874</v>
+        <v>300</v>
       </c>
       <c r="B176" t="s">
-        <v>875</v>
+        <v>301</v>
       </c>
       <c r="C176" t="s">
-        <v>876</v>
+        <v>302</v>
       </c>
       <c r="D176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>879</v>
+        <v>82</v>
+      </c>
+      <c r="E176" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>877</v>
+        <v>402</v>
       </c>
       <c r="B177" t="s">
-        <v>877</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>879</v>
+        <v>403</v>
+      </c>
+      <c r="C177" t="s">
+        <v>404</v>
+      </c>
+      <c r="D177" t="s">
+        <v>80</v>
+      </c>
+      <c r="E177" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>862</v>
+        <v>357</v>
       </c>
       <c r="B178" t="s">
-        <v>863</v>
+        <v>358</v>
       </c>
       <c r="C178" t="s">
-        <v>864</v>
+        <v>359</v>
       </c>
       <c r="D178" t="s">
-        <v>6</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>879</v>
+        <v>80</v>
+      </c>
+      <c r="E178" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>854</v>
+        <v>338</v>
       </c>
       <c r="B179" t="s">
-        <v>854</v>
+        <v>339</v>
       </c>
       <c r="C179" t="s">
-        <v>855</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>879</v>
+        <v>340</v>
+      </c>
+      <c r="D179" t="s">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>851</v>
+        <v>408</v>
       </c>
       <c r="B180" t="s">
-        <v>852</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="D180" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C180" t="s">
+        <v>410</v>
+      </c>
+      <c r="D180" t="s">
         <v>71</v>
       </c>
-      <c r="E180" s="4" t="s">
-        <v>879</v>
+      <c r="E180" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>859</v>
+        <v>313</v>
       </c>
       <c r="B181" t="s">
-        <v>860</v>
+        <v>314</v>
       </c>
       <c r="C181" t="s">
-        <v>861</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>879</v>
+        <v>315</v>
+      </c>
+      <c r="D181" t="s">
+        <v>82</v>
+      </c>
+      <c r="E181" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>865</v>
+        <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>866</v>
+        <v>366</v>
       </c>
       <c r="C182" t="s">
-        <v>867</v>
+        <v>367</v>
       </c>
       <c r="D182" t="s">
-        <v>6</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>879</v>
+        <v>80</v>
+      </c>
+      <c r="E182" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>1042</v>
+        <v>59</v>
       </c>
       <c r="B183" t="s">
-        <v>1042</v>
+        <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>1067</v>
+        <v>18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>82</v>
+      </c>
+      <c r="E183" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>1038</v>
+        <v>323</v>
       </c>
       <c r="B184" t="s">
-        <v>705</v>
+        <v>141</v>
       </c>
       <c r="C184" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D184" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184" t="s">
         <v>82</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>1067</v>
+      <c r="E184" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>1063</v>
+        <v>66</v>
       </c>
       <c r="B185" t="s">
-        <v>1064</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
         <v>71</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>1067</v>
+      <c r="E185" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>1032</v>
+        <v>270</v>
       </c>
       <c r="B186" t="s">
-        <v>1033</v>
+        <v>271</v>
       </c>
       <c r="C186" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>1067</v>
+        <v>272</v>
+      </c>
+      <c r="D186" t="s">
+        <v>80</v>
+      </c>
+      <c r="E186" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>1060</v>
+        <v>291</v>
       </c>
       <c r="B187" t="s">
-        <v>1061</v>
+        <v>292</v>
       </c>
       <c r="C187" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>1067</v>
+        <v>293</v>
+      </c>
+      <c r="D187" t="s">
+        <v>82</v>
+      </c>
+      <c r="E187" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>1054</v>
+        <v>341</v>
       </c>
       <c r="B188" t="s">
-        <v>1055</v>
+        <v>341</v>
       </c>
       <c r="C188" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>1067</v>
+        <v>342</v>
+      </c>
+      <c r="D188" t="s">
+        <v>71</v>
+      </c>
+      <c r="E188" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>755</v>
+        <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>755</v>
+        <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>1067</v>
+        <v>22</v>
+      </c>
+      <c r="D189" t="s">
+        <v>82</v>
+      </c>
+      <c r="E189" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>1057</v>
+        <v>276</v>
       </c>
       <c r="B190" t="s">
-        <v>1058</v>
+        <v>277</v>
       </c>
       <c r="C190" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>1067</v>
+        <v>278</v>
+      </c>
+      <c r="D190" t="s">
+        <v>80</v>
+      </c>
+      <c r="E190" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>1026</v>
+        <v>871</v>
       </c>
       <c r="B191" t="s">
-        <v>1027</v>
+        <v>872</v>
       </c>
       <c r="C191" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>82</v>
+        <v>873</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>1049</v>
+        <v>868</v>
       </c>
       <c r="B192" t="s">
-        <v>1049</v>
+        <v>869</v>
       </c>
       <c r="C192" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>6</v>
+        <v>870</v>
+      </c>
+      <c r="D192" t="s">
+        <v>71</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>459</v>
+        <v>848</v>
       </c>
       <c r="B193" t="s">
-        <v>459</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D193" t="s">
-        <v>71</v>
+        <v>849</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>1029</v>
+        <v>856</v>
       </c>
       <c r="B194" t="s">
-        <v>1030</v>
+        <v>857</v>
       </c>
       <c r="C194" t="s">
-        <v>1031</v>
+        <v>858</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>1044</v>
+        <v>874</v>
       </c>
       <c r="B195" t="s">
-        <v>1044</v>
+        <v>875</v>
       </c>
       <c r="C195" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>82</v>
+        <v>876</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>1035</v>
+        <v>877</v>
       </c>
       <c r="B196" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1037</v>
+        <v>877</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>878</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>1051</v>
+        <v>862</v>
       </c>
       <c r="B197" t="s">
-        <v>1052</v>
+        <v>863</v>
       </c>
       <c r="C197" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>80</v>
+        <v>864</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>677</v>
+        <v>854</v>
       </c>
       <c r="B198" t="s">
-        <v>677</v>
+        <v>854</v>
       </c>
       <c r="C198" t="s">
-        <v>1041</v>
+        <v>855</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>1046</v>
+        <v>851</v>
       </c>
       <c r="B199" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1048</v>
+        <v>852</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>853</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>1067</v>
+        <v>879</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>780</v>
+        <v>859</v>
       </c>
       <c r="B200" t="s">
-        <v>782</v>
+        <v>860</v>
       </c>
       <c r="C200" t="s">
-        <v>781</v>
-      </c>
-      <c r="D200" t="s">
-        <v>80</v>
-      </c>
-      <c r="E200" t="s">
-        <v>805</v>
+        <v>861</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>783</v>
+        <v>865</v>
       </c>
       <c r="B201" t="s">
-        <v>784</v>
+        <v>866</v>
       </c>
       <c r="C201" t="s">
-        <v>785</v>
+        <v>867</v>
       </c>
       <c r="D201" t="s">
-        <v>80</v>
-      </c>
-      <c r="E201" t="s">
-        <v>805</v>
+        <v>6</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>797</v>
+        <v>1042</v>
       </c>
       <c r="B202" t="s">
-        <v>432</v>
+        <v>1042</v>
       </c>
       <c r="C202" t="s">
-        <v>798</v>
-      </c>
-      <c r="D202" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E202" t="s">
-        <v>805</v>
+      <c r="E202" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>771</v>
+        <v>1038</v>
       </c>
       <c r="B203" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
       <c r="C203" t="s">
-        <v>773</v>
-      </c>
-      <c r="D203" t="s">
-        <v>80</v>
-      </c>
-      <c r="E203" t="s">
-        <v>805</v>
+        <v>1039</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>786</v>
+        <v>1063</v>
       </c>
       <c r="B204" t="s">
-        <v>739</v>
+        <v>1064</v>
       </c>
       <c r="C204" t="s">
-        <v>787</v>
-      </c>
-      <c r="D204" t="s">
-        <v>80</v>
-      </c>
-      <c r="E204" t="s">
-        <v>805</v>
+        <v>1065</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>774</v>
+        <v>1032</v>
       </c>
       <c r="B205" t="s">
-        <v>775</v>
+        <v>1033</v>
       </c>
       <c r="C205" t="s">
-        <v>776</v>
-      </c>
-      <c r="D205" t="s">
-        <v>71</v>
-      </c>
-      <c r="E205" t="s">
-        <v>805</v>
+        <v>1034</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>759</v>
+        <v>1060</v>
       </c>
       <c r="B206" t="s">
-        <v>760</v>
+        <v>1061</v>
       </c>
       <c r="C206" t="s">
-        <v>761</v>
-      </c>
-      <c r="D206" t="s">
-        <v>80</v>
-      </c>
-      <c r="E206" t="s">
-        <v>805</v>
+        <v>1062</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>791</v>
+        <v>1054</v>
       </c>
       <c r="B207" t="s">
-        <v>792</v>
+        <v>1055</v>
       </c>
       <c r="C207" t="s">
-        <v>793</v>
-      </c>
-      <c r="D207" t="s">
-        <v>71</v>
-      </c>
-      <c r="E207" t="s">
-        <v>805</v>
+        <v>1056</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B208" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C208" t="s">
-        <v>758</v>
-      </c>
-      <c r="D208" t="s">
-        <v>80</v>
-      </c>
-      <c r="E208" t="s">
-        <v>805</v>
+        <v>1040</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>802</v>
+        <v>1057</v>
       </c>
       <c r="B209" t="s">
-        <v>803</v>
+        <v>1058</v>
       </c>
       <c r="C209" t="s">
-        <v>804</v>
-      </c>
-      <c r="D209" t="s">
-        <v>82</v>
-      </c>
-      <c r="E209" t="s">
-        <v>805</v>
+        <v>1059</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>762</v>
+        <v>1026</v>
       </c>
       <c r="B210" t="s">
-        <v>764</v>
+        <v>1027</v>
       </c>
       <c r="C210" t="s">
-        <v>763</v>
-      </c>
-      <c r="D210" t="s">
-        <v>71</v>
-      </c>
-      <c r="E210" t="s">
-        <v>805</v>
+        <v>1028</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>799</v>
+        <v>1049</v>
       </c>
       <c r="B211" t="s">
-        <v>800</v>
+        <v>1049</v>
       </c>
       <c r="C211" t="s">
-        <v>801</v>
-      </c>
-      <c r="D211" t="s">
-        <v>82</v>
-      </c>
-      <c r="E211" t="s">
-        <v>805</v>
+        <v>1050</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>794</v>
+        <v>459</v>
       </c>
       <c r="B212" t="s">
-        <v>795</v>
+        <v>459</v>
       </c>
       <c r="C212" t="s">
-        <v>796</v>
+        <v>1066</v>
       </c>
       <c r="D212" t="s">
-        <v>80</v>
-      </c>
-      <c r="E212" t="s">
-        <v>805</v>
+        <v>71</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>788</v>
+        <v>1029</v>
       </c>
       <c r="B213" t="s">
-        <v>789</v>
+        <v>1030</v>
       </c>
       <c r="C213" t="s">
-        <v>790</v>
-      </c>
-      <c r="D213" t="s">
-        <v>80</v>
-      </c>
-      <c r="E213" t="s">
-        <v>805</v>
+        <v>1031</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>765</v>
+        <v>1044</v>
       </c>
       <c r="B214" t="s">
-        <v>766</v>
+        <v>1044</v>
       </c>
       <c r="C214" t="s">
-        <v>767</v>
-      </c>
-      <c r="D214" t="s">
-        <v>80</v>
-      </c>
-      <c r="E214" t="s">
-        <v>805</v>
+        <v>1045</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>777</v>
+        <v>1035</v>
       </c>
       <c r="B215" t="s">
-        <v>778</v>
+        <v>1036</v>
       </c>
       <c r="C215" t="s">
-        <v>779</v>
-      </c>
-      <c r="D215" t="s">
-        <v>80</v>
-      </c>
-      <c r="E215" t="s">
-        <v>805</v>
+        <v>1037</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>768</v>
+        <v>1051</v>
       </c>
       <c r="B216" t="s">
-        <v>769</v>
+        <v>1052</v>
       </c>
       <c r="C216" t="s">
-        <v>770</v>
-      </c>
-      <c r="D216" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E216" t="s">
-        <v>805</v>
+      <c r="E216" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>175</v>
+        <v>677</v>
       </c>
       <c r="B217" t="s">
-        <v>176</v>
+        <v>677</v>
       </c>
       <c r="C217" t="s">
-        <v>204</v>
-      </c>
-      <c r="D217" t="s">
-        <v>71</v>
-      </c>
-      <c r="E217" t="s">
-        <v>6</v>
+        <v>1041</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>157</v>
+        <v>1046</v>
       </c>
       <c r="B218" t="s">
-        <v>158</v>
+        <v>1047</v>
       </c>
       <c r="C218" t="s">
-        <v>159</v>
-      </c>
-      <c r="D218" t="s">
-        <v>6</v>
-      </c>
-      <c r="E218" t="s">
-        <v>6</v>
+        <v>1048</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>43</v>
+        <v>780</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>782</v>
       </c>
       <c r="C219" t="s">
-        <v>44</v>
+        <v>781</v>
       </c>
       <c r="D219" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E219" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>783</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>784</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>785</v>
       </c>
       <c r="D220" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E220" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>797</v>
       </c>
       <c r="B221" t="s">
-        <v>138</v>
+        <v>432</v>
       </c>
       <c r="C221" t="s">
-        <v>160</v>
+        <v>798</v>
       </c>
       <c r="D221" t="s">
         <v>80</v>
       </c>
       <c r="E221" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>155</v>
+        <v>771</v>
       </c>
       <c r="B222" t="s">
-        <v>156</v>
+        <v>772</v>
       </c>
       <c r="C222" t="s">
-        <v>171</v>
+        <v>773</v>
       </c>
       <c r="D222" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E222" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>199</v>
+        <v>786</v>
       </c>
       <c r="B223" t="s">
-        <v>200</v>
+        <v>739</v>
       </c>
       <c r="C223" t="s">
-        <v>217</v>
+        <v>787</v>
       </c>
       <c r="D223" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E223" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>148</v>
+        <v>774</v>
       </c>
       <c r="B224" t="s">
-        <v>149</v>
+        <v>775</v>
       </c>
       <c r="C224" t="s">
-        <v>164</v>
+        <v>776</v>
       </c>
       <c r="D224" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E224" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>179</v>
+        <v>759</v>
       </c>
       <c r="B225" t="s">
-        <v>180</v>
+        <v>760</v>
       </c>
       <c r="C225" t="s">
-        <v>212</v>
+        <v>761</v>
       </c>
       <c r="D225" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E225" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>201</v>
+        <v>791</v>
       </c>
       <c r="B226" t="s">
-        <v>202</v>
+        <v>792</v>
       </c>
       <c r="C226" t="s">
-        <v>203</v>
+        <v>793</v>
       </c>
       <c r="D226" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>189</v>
+        <v>756</v>
       </c>
       <c r="B227" t="s">
-        <v>190</v>
+        <v>757</v>
       </c>
       <c r="C227" t="s">
-        <v>216</v>
+        <v>758</v>
       </c>
       <c r="D227" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E227" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>100</v>
+        <v>802</v>
       </c>
       <c r="B228" t="s">
-        <v>100</v>
+        <v>803</v>
       </c>
       <c r="C228" t="s">
-        <v>121</v>
+        <v>804</v>
       </c>
       <c r="D228" t="s">
         <v>82</v>
       </c>
       <c r="E228" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>103</v>
+        <v>762</v>
       </c>
       <c r="B229" t="s">
-        <v>104</v>
+        <v>764</v>
       </c>
       <c r="C229" t="s">
-        <v>122</v>
+        <v>763</v>
       </c>
       <c r="D229" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E229" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>799</v>
       </c>
       <c r="B230" t="s">
-        <v>79</v>
+        <v>800</v>
       </c>
       <c r="C230" t="s">
-        <v>90</v>
+        <v>801</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E230" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>140</v>
+        <v>794</v>
       </c>
       <c r="B231" t="s">
-        <v>140</v>
+        <v>795</v>
       </c>
       <c r="C231" t="s">
-        <v>168</v>
+        <v>796</v>
       </c>
       <c r="D231" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E231" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>788</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>789</v>
       </c>
       <c r="C232" t="s">
-        <v>247</v>
+        <v>790</v>
       </c>
       <c r="D232" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E232" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>193</v>
+        <v>765</v>
       </c>
       <c r="B233" t="s">
-        <v>194</v>
+        <v>766</v>
       </c>
       <c r="C233" t="s">
-        <v>210</v>
+        <v>767</v>
       </c>
       <c r="D233" t="s">
         <v>80</v>
       </c>
       <c r="E233" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>108</v>
+        <v>777</v>
       </c>
       <c r="B234" t="s">
-        <v>108</v>
+        <v>778</v>
       </c>
       <c r="C234" t="s">
-        <v>131</v>
+        <v>779</v>
       </c>
       <c r="D234" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E234" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>115</v>
+        <v>768</v>
       </c>
       <c r="B235" t="s">
-        <v>116</v>
+        <v>769</v>
       </c>
       <c r="C235" t="s">
-        <v>128</v>
+        <v>770</v>
       </c>
       <c r="D235" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E235" t="s">
-        <v>6</v>
+        <v>805</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B236" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C236" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D236" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E236" t="s">
         <v>6</v>
@@ -7842,16 +8010,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B237" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="C237" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="D237" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E237" t="s">
         <v>6</v>
@@ -7859,13 +8027,13 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="C238" t="s">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="D238" t="s">
         <v>71</v>
@@ -7876,16 +8044,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="C239" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D239" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E239" t="s">
         <v>6</v>
@@ -7893,16 +8061,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B240" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="C240" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="D240" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E240" t="s">
         <v>6</v>
@@ -7910,16 +8078,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B241" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C241" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D241" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E241" t="s">
         <v>6</v>
@@ -7927,16 +8095,16 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B242" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="C242" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="D242" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E242" t="s">
         <v>6</v>
@@ -7944,13 +8112,13 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B243" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C243" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D243" t="s">
         <v>82</v>
@@ -7961,16 +8129,16 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="B244" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="C244" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="D244" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E244" t="s">
         <v>6</v>
@@ -7978,16 +8146,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="B245" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="C245" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D245" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E245" t="s">
         <v>6</v>
@@ -7995,16 +8163,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="B246" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C246" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D246" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E246" t="s">
         <v>6</v>
@@ -8012,16 +8180,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="B247" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="C247" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D247" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E247" t="s">
         <v>6</v>
@@ -8029,13 +8197,13 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B248" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C248" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D248" t="s">
         <v>82</v>
@@ -8046,16 +8214,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="B249" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C249" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="D249" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E249" t="s">
         <v>6</v>
@@ -8063,13 +8231,13 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B250" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C250" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D250" t="s">
         <v>82</v>
@@ -8080,13 +8248,13 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="B251" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="C251" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="D251" t="s">
         <v>71</v>
@@ -8097,16 +8265,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="B252" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C252" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="D252" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E252" t="s">
         <v>6</v>
@@ -8114,16 +8282,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C253" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D253" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E253" t="s">
         <v>6</v>
@@ -8131,16 +8299,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B254" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C254" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D254" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E254" t="s">
         <v>6</v>
@@ -8148,16 +8316,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B255" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C255" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D255" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E255" t="s">
         <v>6</v>
@@ -8165,13 +8333,13 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B256" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C256" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D256" t="s">
         <v>71</v>
@@ -8182,16 +8350,16 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="B257" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="C257" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="D257" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E257" t="s">
         <v>6</v>
@@ -8199,16 +8367,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="B258" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C258" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D258" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E258" t="s">
         <v>6</v>
@@ -8216,13 +8384,13 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C259" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="D259" t="s">
         <v>71</v>
@@ -8233,16 +8401,16 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="B260" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C260" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D260" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E260" t="s">
         <v>6</v>
@@ -8250,16 +8418,16 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B261" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C261" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D261" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E261" t="s">
         <v>6</v>
@@ -8267,16 +8435,16 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="B262" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C262" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="D262" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E262" t="s">
         <v>6</v>
@@ -8284,16 +8452,16 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="B263" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="C263" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="D263" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E263" t="s">
         <v>6</v>
@@ -8301,16 +8469,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B264" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C264" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D264" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E264" t="s">
         <v>6</v>
@@ -8318,13 +8486,13 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="B265" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C265" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D265" t="s">
         <v>71</v>
@@ -8335,16 +8503,16 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="B266" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="C266" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E266" t="s">
         <v>6</v>
@@ -8352,16 +8520,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B267" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C267" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="D267" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E267" t="s">
         <v>6</v>
@@ -8369,16 +8537,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B268" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C268" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="D268" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E268" t="s">
         <v>6</v>
@@ -8386,16 +8554,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="B269" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="C269" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="D269" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E269" t="s">
         <v>6</v>
@@ -8403,13 +8571,13 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="B270" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="C270" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="D270" t="s">
         <v>71</v>
@@ -8420,16 +8588,16 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="B271" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="C271" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="D271" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E271" t="s">
         <v>6</v>
@@ -8437,13 +8605,13 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B272" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C272" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="D272" t="s">
         <v>80</v>
@@ -8454,16 +8622,16 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B273" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C273" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D273" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E273" t="s">
         <v>6</v>
@@ -8471,16 +8639,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="B274" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C274" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="D274" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E274" t="s">
         <v>6</v>
@@ -8488,16 +8656,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="B275" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="C275" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="D275" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E275" t="s">
         <v>6</v>
@@ -8505,16 +8673,16 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="B276" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="C276" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="D276" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E276" t="s">
         <v>6</v>
@@ -8522,13 +8690,13 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="B277" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="C277" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="D277" t="s">
         <v>71</v>
@@ -8539,13 +8707,13 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="B278" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C278" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D278" t="s">
         <v>71</v>
@@ -8556,16 +8724,16 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B279" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C279" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E279" t="s">
         <v>6</v>
@@ -8573,16 +8741,16 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="B280" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="C280" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="D280" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E280" t="s">
         <v>6</v>
@@ -8590,13 +8758,13 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="B281" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="C281" t="s">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="D281" t="s">
         <v>71</v>
@@ -8607,16 +8775,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="B282" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="C282" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="D282" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E282" t="s">
         <v>6</v>
@@ -8624,16 +8792,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B283" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C283" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E283" t="s">
         <v>6</v>
@@ -8641,16 +8809,16 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B284" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C284" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="D284" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E284" t="s">
         <v>6</v>
@@ -8658,16 +8826,16 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="B285" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="C285" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="D285" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E285" t="s">
         <v>6</v>
@@ -8675,16 +8843,16 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B286" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="C286" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="D286" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E286" t="s">
         <v>6</v>
@@ -8692,16 +8860,16 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B287" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C287" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="D287" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E287" t="s">
         <v>6</v>
@@ -8709,16 +8877,16 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="B288" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="C288" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="D288" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E288" t="s">
         <v>6</v>
@@ -8726,13 +8894,13 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B289" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C289" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D289" t="s">
         <v>71</v>
@@ -8743,13 +8911,13 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="B290" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C290" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="D290" t="s">
         <v>80</v>
@@ -8760,574 +8928,574 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>809</v>
+        <v>74</v>
       </c>
       <c r="B291" t="s">
-        <v>810</v>
+        <v>74</v>
       </c>
       <c r="C291" t="s">
-        <v>811</v>
+        <v>87</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E291" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>839</v>
+        <v>73</v>
       </c>
       <c r="B292" t="s">
-        <v>840</v>
+        <v>73</v>
       </c>
       <c r="C292" t="s">
-        <v>841</v>
+        <v>86</v>
       </c>
       <c r="D292" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E292" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>818</v>
+        <v>111</v>
       </c>
       <c r="B293" t="s">
-        <v>820</v>
+        <v>112</v>
       </c>
       <c r="C293" t="s">
-        <v>819</v>
+        <v>129</v>
       </c>
       <c r="D293" t="s">
         <v>82</v>
       </c>
       <c r="E293" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>821</v>
+        <v>139</v>
       </c>
       <c r="B294" t="s">
-        <v>823</v>
+        <v>139</v>
       </c>
       <c r="C294" t="s">
-        <v>822</v>
+        <v>170</v>
       </c>
       <c r="D294" t="s">
         <v>82</v>
       </c>
       <c r="E294" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>827</v>
+        <v>226</v>
       </c>
       <c r="B295" t="s">
-        <v>828</v>
+        <v>226</v>
       </c>
       <c r="C295" t="s">
-        <v>829</v>
+        <v>242</v>
       </c>
       <c r="D295" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E295" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>806</v>
+        <v>218</v>
       </c>
       <c r="B296" t="s">
-        <v>807</v>
+        <v>218</v>
       </c>
       <c r="C296" t="s">
-        <v>808</v>
+        <v>236</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E296" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>812</v>
+        <v>222</v>
       </c>
       <c r="B297" t="s">
-        <v>813</v>
+        <v>223</v>
       </c>
       <c r="C297" t="s">
-        <v>814</v>
+        <v>240</v>
       </c>
       <c r="D297" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E297" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>815</v>
+        <v>95</v>
       </c>
       <c r="B298" t="s">
-        <v>817</v>
+        <v>95</v>
       </c>
       <c r="C298" t="s">
-        <v>816</v>
+        <v>119</v>
       </c>
       <c r="D298" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E298" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>824</v>
+        <v>219</v>
       </c>
       <c r="B299" t="s">
-        <v>825</v>
+        <v>219</v>
       </c>
       <c r="C299" t="s">
-        <v>826</v>
+        <v>237</v>
       </c>
       <c r="D299" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E299" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>842</v>
+        <v>224</v>
       </c>
       <c r="B300" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C300" t="s">
-        <v>843</v>
+        <v>241</v>
       </c>
       <c r="D300" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E300" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>836</v>
+        <v>109</v>
       </c>
       <c r="B301" t="s">
-        <v>837</v>
+        <v>110</v>
       </c>
       <c r="C301" t="s">
-        <v>838</v>
+        <v>123</v>
       </c>
       <c r="D301" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E301" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="B302" t="s">
-        <v>831</v>
+        <v>76</v>
       </c>
       <c r="C302" t="s">
-        <v>832</v>
+        <v>88</v>
       </c>
       <c r="D302" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E302" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>833</v>
+        <v>141</v>
       </c>
       <c r="B303" t="s">
-        <v>834</v>
+        <v>141</v>
       </c>
       <c r="C303" t="s">
-        <v>835</v>
+        <v>163</v>
       </c>
       <c r="D303" t="s">
         <v>82</v>
       </c>
       <c r="E303" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>844</v>
+        <v>227</v>
       </c>
       <c r="B304" t="s">
-        <v>845</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>6</v>
+        <v>227</v>
+      </c>
+      <c r="C304" t="s">
+        <v>243</v>
+      </c>
+      <c r="D304" t="s">
+        <v>71</v>
       </c>
       <c r="E304" t="s">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>473</v>
+        <v>69</v>
       </c>
       <c r="B305" t="s">
-        <v>474</v>
+        <v>41</v>
       </c>
       <c r="C305" t="s">
-        <v>475</v>
+        <v>70</v>
       </c>
       <c r="D305" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E305" t="s">
-        <v>479</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>416</v>
+        <v>191</v>
       </c>
       <c r="B306" t="s">
-        <v>417</v>
+        <v>192</v>
       </c>
       <c r="C306" t="s">
-        <v>418</v>
+        <v>208</v>
       </c>
       <c r="D306" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E306" t="s">
-        <v>479</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="B307" t="s">
-        <v>441</v>
+        <v>51</v>
       </c>
       <c r="C307" t="s">
-        <v>442</v>
+        <v>52</v>
       </c>
       <c r="D307" t="s">
         <v>6</v>
       </c>
       <c r="E307" t="s">
-        <v>479</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>431</v>
+        <v>234</v>
       </c>
       <c r="B308" t="s">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="C308" t="s">
-        <v>433</v>
+        <v>249</v>
       </c>
       <c r="D308" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E308" t="s">
-        <v>479</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>455</v>
+        <v>146</v>
       </c>
       <c r="B309" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="C309" t="s">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="D309" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E309" t="s">
-        <v>479</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>437</v>
+        <v>809</v>
       </c>
       <c r="B310" t="s">
-        <v>438</v>
+        <v>810</v>
       </c>
       <c r="C310" t="s">
-        <v>439</v>
+        <v>811</v>
       </c>
       <c r="D310" t="s">
         <v>6</v>
       </c>
       <c r="E310" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>464</v>
+        <v>839</v>
       </c>
       <c r="B311" t="s">
-        <v>465</v>
+        <v>840</v>
       </c>
       <c r="C311" t="s">
-        <v>466</v>
+        <v>841</v>
       </c>
       <c r="D311" t="s">
         <v>6</v>
       </c>
       <c r="E311" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>428</v>
+        <v>818</v>
       </c>
       <c r="B312" t="s">
-        <v>429</v>
+        <v>820</v>
       </c>
       <c r="C312" t="s">
-        <v>430</v>
+        <v>819</v>
       </c>
       <c r="D312" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E312" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>476</v>
+        <v>821</v>
       </c>
       <c r="B313" t="s">
-        <v>477</v>
+        <v>823</v>
       </c>
       <c r="C313" t="s">
-        <v>478</v>
+        <v>822</v>
       </c>
       <c r="D313" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E313" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>419</v>
+        <v>827</v>
       </c>
       <c r="B314" t="s">
-        <v>420</v>
+        <v>828</v>
       </c>
       <c r="C314" t="s">
-        <v>421</v>
+        <v>829</v>
       </c>
       <c r="D314" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E314" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>449</v>
+        <v>806</v>
       </c>
       <c r="B315" t="s">
-        <v>451</v>
+        <v>807</v>
       </c>
       <c r="C315" t="s">
-        <v>450</v>
+        <v>808</v>
       </c>
       <c r="D315" t="s">
         <v>6</v>
       </c>
       <c r="E315" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>422</v>
+        <v>812</v>
       </c>
       <c r="B316" t="s">
-        <v>424</v>
+        <v>813</v>
       </c>
       <c r="C316" t="s">
-        <v>423</v>
+        <v>814</v>
       </c>
       <c r="D316" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E316" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>443</v>
+        <v>815</v>
       </c>
       <c r="B317" t="s">
-        <v>444</v>
+        <v>817</v>
       </c>
       <c r="C317" t="s">
-        <v>445</v>
+        <v>816</v>
       </c>
       <c r="D317" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E317" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>461</v>
+        <v>824</v>
       </c>
       <c r="B318" t="s">
-        <v>462</v>
+        <v>825</v>
       </c>
       <c r="C318" t="s">
-        <v>463</v>
+        <v>826</v>
       </c>
       <c r="D318" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E318" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>452</v>
+        <v>842</v>
       </c>
       <c r="B319" t="s">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="C319" t="s">
-        <v>454</v>
+        <v>843</v>
       </c>
       <c r="D319" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E319" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>467</v>
+        <v>836</v>
       </c>
       <c r="B320" t="s">
-        <v>468</v>
+        <v>837</v>
       </c>
       <c r="C320" t="s">
-        <v>469</v>
+        <v>838</v>
       </c>
       <c r="D320" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E320" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>446</v>
+        <v>830</v>
       </c>
       <c r="B321" t="s">
-        <v>447</v>
+        <v>831</v>
       </c>
       <c r="C321" t="s">
-        <v>448</v>
+        <v>832</v>
       </c>
       <c r="D321" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E321" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>425</v>
+        <v>833</v>
       </c>
       <c r="B322" t="s">
-        <v>426</v>
+        <v>834</v>
       </c>
       <c r="C322" t="s">
-        <v>427</v>
+        <v>835</v>
       </c>
       <c r="D322" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E322" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>458</v>
+        <v>844</v>
       </c>
       <c r="B323" t="s">
-        <v>459</v>
-      </c>
-      <c r="C323" t="s">
-        <v>460</v>
-      </c>
-      <c r="D323" t="s">
+        <v>845</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D323" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E323" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B324" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C324" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D324" t="s">
         <v>6</v>
@@ -9338,13 +9506,13 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B325" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C325" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D325" t="s">
         <v>82</v>
@@ -9355,16 +9523,16 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="B326" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C326" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="D326" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E326" t="s">
         <v>479</v>
@@ -9372,336 +9540,336 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="B327" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="C327" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="D327" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E327" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="B328" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="C328" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="D328" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E328" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="B329" t="s">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="C329" t="s">
-        <v>497</v>
+        <v>439</v>
       </c>
       <c r="D329" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E329" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>543</v>
+        <v>464</v>
       </c>
       <c r="B330" t="s">
-        <v>544</v>
+        <v>465</v>
       </c>
       <c r="C330" t="s">
-        <v>545</v>
+        <v>466</v>
       </c>
       <c r="D330" t="s">
         <v>6</v>
       </c>
       <c r="E330" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="B331" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="C331" t="s">
-        <v>503</v>
+        <v>430</v>
       </c>
       <c r="D331" t="s">
         <v>6</v>
       </c>
       <c r="E331" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B332" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C332" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="B333" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="C333" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="D333" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E333" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="B334" t="s">
-        <v>526</v>
+        <v>451</v>
       </c>
       <c r="C334" t="s">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="D334" t="s">
         <v>6</v>
       </c>
       <c r="E334" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>540</v>
+        <v>422</v>
       </c>
       <c r="B335" t="s">
-        <v>541</v>
+        <v>424</v>
       </c>
       <c r="C335" t="s">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="D335" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E335" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>516</v>
+        <v>443</v>
       </c>
       <c r="B336" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="C336" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="D336" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E336" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="B337" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="C337" t="s">
-        <v>511</v>
+        <v>463</v>
       </c>
       <c r="D337" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E337" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>534</v>
+        <v>452</v>
       </c>
       <c r="B338" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="C338" t="s">
-        <v>535</v>
+        <v>454</v>
       </c>
       <c r="D338" t="s">
         <v>6</v>
       </c>
       <c r="E338" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="B339" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="C339" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="D339" t="s">
         <v>6</v>
       </c>
       <c r="E339" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>537</v>
+        <v>446</v>
       </c>
       <c r="B340" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="C340" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="D340" t="s">
         <v>6</v>
       </c>
       <c r="E340" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="B341" t="s">
-        <v>529</v>
+        <v>426</v>
       </c>
       <c r="C341" t="s">
-        <v>530</v>
+        <v>427</v>
       </c>
       <c r="D341" t="s">
         <v>6</v>
       </c>
       <c r="E341" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B342" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C342" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="D342" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E342" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="B343" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="C343" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="D343" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E343" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>513</v>
+        <v>434</v>
       </c>
       <c r="B344" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="C344" t="s">
-        <v>515</v>
+        <v>436</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E344" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="B345" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="C345" t="s">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="D345" t="s">
         <v>71</v>
       </c>
       <c r="E345" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="B346" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="C346" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="D346" t="s">
         <v>71</v>
@@ -9712,13 +9880,13 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B347" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C347" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D347" t="s">
         <v>71</v>
@@ -9729,16 +9897,16 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B348" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C348" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D348" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E348" t="s">
         <v>546</v>
@@ -9746,1060 +9914,1383 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B349" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C349" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D349" t="s">
         <v>6</v>
       </c>
       <c r="E349" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>571</v>
+        <v>501</v>
       </c>
       <c r="B350" t="s">
-        <v>572</v>
+        <v>502</v>
       </c>
       <c r="C350" t="s">
-        <v>573</v>
+        <v>503</v>
       </c>
       <c r="D350" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E350" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>580</v>
+        <v>489</v>
       </c>
       <c r="B351" t="s">
-        <v>581</v>
+        <v>490</v>
       </c>
       <c r="C351" t="s">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="D351" t="s">
         <v>6</v>
       </c>
       <c r="E351" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>486</v>
       </c>
       <c r="B352" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="C352" t="s">
-        <v>587</v>
+        <v>488</v>
       </c>
       <c r="D352" t="s">
         <v>6</v>
       </c>
       <c r="E352" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="B353" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="C353" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="D353" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E353" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="B354" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="C354" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="D354" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E354" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="B355" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="C355" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="D355" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E355" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>591</v>
+        <v>510</v>
       </c>
       <c r="B356" t="s">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="C356" t="s">
-        <v>593</v>
+        <v>511</v>
       </c>
       <c r="D356" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E356" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="B357" t="s">
-        <v>579</v>
+        <v>536</v>
       </c>
       <c r="C357" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="D357" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E357" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="B358" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="C358" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="D358" t="s">
         <v>6</v>
       </c>
       <c r="E358" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>583</v>
+        <v>537</v>
       </c>
       <c r="B359" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="C359" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="D359" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E359" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="B360" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="C360" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="D360" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E360" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="B361" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="C361" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
       <c r="D361" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E361" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="B362" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="C362" t="s">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="D362" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E362" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="B363" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="C363" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="D363" t="s">
         <v>6</v>
       </c>
       <c r="E363" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="B364" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="C364" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="D364" t="s">
         <v>71</v>
       </c>
       <c r="E364" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>619</v>
+        <v>531</v>
       </c>
       <c r="B365" t="s">
-        <v>620</v>
+        <v>533</v>
       </c>
       <c r="C365" t="s">
-        <v>621</v>
+        <v>532</v>
       </c>
       <c r="D365" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E365" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>646</v>
+        <v>519</v>
       </c>
       <c r="B366" t="s">
-        <v>647</v>
+        <v>520</v>
       </c>
       <c r="C366" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="D366" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E366" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>643</v>
+        <v>507</v>
       </c>
       <c r="B367" t="s">
-        <v>644</v>
+        <v>508</v>
       </c>
       <c r="C367" t="s">
-        <v>645</v>
+        <v>509</v>
       </c>
       <c r="D367" t="s">
         <v>6</v>
       </c>
       <c r="E367" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="B368" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="C368" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="D368" t="s">
         <v>6</v>
       </c>
       <c r="E368" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
-        <v>640</v>
+        <v>571</v>
       </c>
       <c r="B369" t="s">
-        <v>641</v>
+        <v>572</v>
       </c>
       <c r="C369" t="s">
-        <v>642</v>
+        <v>573</v>
       </c>
       <c r="D369" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E369" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>625</v>
+        <v>580</v>
       </c>
       <c r="B370" t="s">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="C370" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="D370" t="s">
         <v>6</v>
       </c>
       <c r="E370" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="B371" t="s">
-        <v>614</v>
+        <v>24</v>
       </c>
       <c r="C371" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="D371" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E371" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
       <c r="B372" t="s">
-        <v>617</v>
+        <v>563</v>
       </c>
       <c r="C372" t="s">
-        <v>618</v>
+        <v>564</v>
       </c>
       <c r="D372" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E372" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" t="s">
-        <v>622</v>
+        <v>574</v>
       </c>
       <c r="B373" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="C373" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="D373" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E373" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="B374" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="C374" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="D374" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E374" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B375" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C375" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D375" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E375" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
-        <v>637</v>
+        <v>577</v>
       </c>
       <c r="B376" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
       <c r="C376" t="s">
-        <v>639</v>
+        <v>578</v>
       </c>
       <c r="D376" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E376" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="B377" t="s">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="C377" t="s">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="D377" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E377" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
       <c r="B378" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
       <c r="C378" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
       <c r="D378" t="s">
         <v>82</v>
       </c>
       <c r="E378" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>636</v>
+        <v>566</v>
       </c>
       <c r="C379" t="s">
-        <v>635</v>
+        <v>567</v>
       </c>
       <c r="D379" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E379" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" t="s">
-        <v>628</v>
+        <v>556</v>
       </c>
       <c r="B380" t="s">
-        <v>629</v>
+        <v>557</v>
       </c>
       <c r="C380" t="s">
-        <v>630</v>
+        <v>558</v>
       </c>
       <c r="D380" t="s">
         <v>6</v>
       </c>
       <c r="E380" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" t="s">
-        <v>631</v>
+        <v>588</v>
       </c>
       <c r="B381" t="s">
-        <v>632</v>
+        <v>589</v>
       </c>
       <c r="C381" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
       <c r="D381" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E381" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="B382" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="C382" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="D382" t="s">
         <v>6</v>
       </c>
       <c r="E382" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="B383" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="C383" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="D383" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E383" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
-        <v>1078</v>
+        <v>619</v>
       </c>
       <c r="B384" t="s">
-        <v>1079</v>
+        <v>620</v>
       </c>
       <c r="C384" t="s">
-        <v>1080</v>
+        <v>621</v>
       </c>
       <c r="D384" t="s">
         <v>6</v>
       </c>
-      <c r="E384" s="4" t="s">
-        <v>1100</v>
+      <c r="E384" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
-        <v>1083</v>
+        <v>646</v>
       </c>
       <c r="B385" t="s">
-        <v>1084</v>
+        <v>647</v>
       </c>
       <c r="C385" t="s">
-        <v>1085</v>
+        <v>648</v>
       </c>
       <c r="D385" t="s">
-        <v>71</v>
-      </c>
-      <c r="E385" s="4" t="s">
-        <v>1100</v>
+        <v>6</v>
+      </c>
+      <c r="E385" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
-        <v>1070</v>
+        <v>643</v>
       </c>
       <c r="B386" t="s">
-        <v>1070</v>
+        <v>644</v>
       </c>
       <c r="C386" t="s">
-        <v>1071</v>
+        <v>645</v>
       </c>
       <c r="D386" t="s">
-        <v>80</v>
-      </c>
-      <c r="E386" s="4" t="s">
-        <v>1100</v>
+        <v>6</v>
+      </c>
+      <c r="E386" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" t="s">
-        <v>1093</v>
+        <v>595</v>
       </c>
       <c r="B387" t="s">
-        <v>1093</v>
+        <v>596</v>
       </c>
       <c r="C387" t="s">
-        <v>1094</v>
+        <v>597</v>
       </c>
       <c r="D387" t="s">
-        <v>71</v>
-      </c>
-      <c r="E387" s="4" t="s">
-        <v>1100</v>
+        <v>6</v>
+      </c>
+      <c r="E387" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" t="s">
-        <v>1068</v>
+        <v>640</v>
       </c>
       <c r="B388" t="s">
-        <v>1068</v>
+        <v>641</v>
       </c>
       <c r="C388" t="s">
-        <v>1069</v>
+        <v>642</v>
       </c>
       <c r="D388" t="s">
-        <v>6</v>
-      </c>
-      <c r="E388" s="4" t="s">
-        <v>1100</v>
+        <v>71</v>
+      </c>
+      <c r="E388" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" t="s">
-        <v>1095</v>
+        <v>625</v>
       </c>
       <c r="B389" t="s">
-        <v>1096</v>
+        <v>627</v>
       </c>
       <c r="C389" t="s">
-        <v>1097</v>
+        <v>626</v>
       </c>
       <c r="D389" t="s">
-        <v>82</v>
-      </c>
-      <c r="E389" s="4" t="s">
-        <v>1100</v>
+        <v>6</v>
+      </c>
+      <c r="E389" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" t="s">
-        <v>1074</v>
+        <v>613</v>
       </c>
       <c r="B390" t="s">
-        <v>1074</v>
+        <v>614</v>
       </c>
       <c r="C390" t="s">
-        <v>1075</v>
+        <v>615</v>
       </c>
       <c r="D390" t="s">
-        <v>6</v>
-      </c>
-      <c r="E390" s="4" t="s">
-        <v>1100</v>
+        <v>71</v>
+      </c>
+      <c r="E390" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
-        <v>1098</v>
+        <v>616</v>
       </c>
       <c r="B391" t="s">
-        <v>1098</v>
+        <v>617</v>
       </c>
       <c r="C391" t="s">
-        <v>1099</v>
+        <v>618</v>
       </c>
       <c r="D391" t="s">
         <v>80</v>
       </c>
-      <c r="E391" s="4" t="s">
-        <v>1100</v>
+      <c r="E391" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>1086</v>
+        <v>622</v>
       </c>
       <c r="B392" t="s">
-        <v>1086</v>
+        <v>623</v>
       </c>
       <c r="C392" t="s">
-        <v>1087</v>
+        <v>624</v>
       </c>
       <c r="D392" t="s">
-        <v>82</v>
-      </c>
-      <c r="E392" s="4" t="s">
-        <v>1100</v>
+        <v>6</v>
+      </c>
+      <c r="E392" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
-        <v>1072</v>
+        <v>604</v>
       </c>
       <c r="B393" t="s">
-        <v>1072</v>
+        <v>605</v>
       </c>
       <c r="C393" t="s">
-        <v>1073</v>
+        <v>606</v>
       </c>
       <c r="D393" t="s">
-        <v>80</v>
-      </c>
-      <c r="E393" s="4" t="s">
-        <v>1100</v>
+        <v>82</v>
+      </c>
+      <c r="E393" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" t="s">
-        <v>1076</v>
+        <v>601</v>
       </c>
       <c r="B394" t="s">
-        <v>1076</v>
+        <v>602</v>
       </c>
       <c r="C394" t="s">
-        <v>1077</v>
+        <v>603</v>
       </c>
       <c r="D394" t="s">
-        <v>71</v>
-      </c>
-      <c r="E394" s="4" t="s">
-        <v>1100</v>
+        <v>82</v>
+      </c>
+      <c r="E394" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" t="s">
-        <v>1081</v>
+        <v>637</v>
       </c>
       <c r="B395" t="s">
-        <v>1081</v>
+        <v>638</v>
       </c>
       <c r="C395" t="s">
-        <v>1082</v>
+        <v>639</v>
       </c>
       <c r="D395" t="s">
-        <v>80</v>
-      </c>
-      <c r="E395" s="4" t="s">
-        <v>1100</v>
+        <v>6</v>
+      </c>
+      <c r="E395" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
-        <v>1088</v>
+        <v>598</v>
       </c>
       <c r="B396" t="s">
-        <v>1088</v>
+        <v>599</v>
       </c>
       <c r="C396" t="s">
-        <v>1089</v>
+        <v>600</v>
       </c>
       <c r="D396" t="s">
-        <v>80</v>
-      </c>
-      <c r="E396" s="4" t="s">
-        <v>1100</v>
+        <v>71</v>
+      </c>
+      <c r="E396" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
-        <v>1090</v>
+        <v>649</v>
       </c>
       <c r="B397" t="s">
-        <v>1091</v>
+        <v>650</v>
       </c>
       <c r="C397" t="s">
-        <v>1092</v>
+        <v>651</v>
       </c>
       <c r="D397" t="s">
-        <v>6</v>
-      </c>
-      <c r="E397" s="4" t="s">
-        <v>1100</v>
+        <v>82</v>
+      </c>
+      <c r="E397" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>939</v>
+        <v>634</v>
       </c>
       <c r="B398" t="s">
-        <v>9</v>
+        <v>636</v>
       </c>
       <c r="C398" t="s">
-        <v>940</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E398" s="4" t="s">
-        <v>949</v>
+        <v>635</v>
+      </c>
+      <c r="D398" t="s">
+        <v>82</v>
+      </c>
+      <c r="E398" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
-        <v>919</v>
+        <v>628</v>
       </c>
       <c r="B399" t="s">
-        <v>920</v>
+        <v>629</v>
       </c>
       <c r="C399" t="s">
-        <v>921</v>
-      </c>
-      <c r="D399" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E399" s="4" t="s">
-        <v>949</v>
+        <v>630</v>
+      </c>
+      <c r="D399" t="s">
+        <v>6</v>
+      </c>
+      <c r="E399" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
-        <v>928</v>
+        <v>631</v>
       </c>
       <c r="B400" t="s">
-        <v>929</v>
+        <v>632</v>
       </c>
       <c r="C400" t="s">
-        <v>930</v>
-      </c>
-      <c r="D400" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E400" s="4" t="s">
-        <v>949</v>
+        <v>633</v>
+      </c>
+      <c r="D400" t="s">
+        <v>82</v>
+      </c>
+      <c r="E400" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" t="s">
-        <v>931</v>
+        <v>610</v>
       </c>
       <c r="B401" t="s">
-        <v>932</v>
+        <v>611</v>
       </c>
       <c r="C401" t="s">
-        <v>933</v>
-      </c>
-      <c r="D401" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E401" s="4" t="s">
-        <v>949</v>
+        <v>612</v>
+      </c>
+      <c r="D401" t="s">
+        <v>6</v>
+      </c>
+      <c r="E401" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" t="s">
-        <v>941</v>
+        <v>607</v>
       </c>
       <c r="B402" t="s">
-        <v>942</v>
+        <v>608</v>
       </c>
       <c r="C402" t="s">
-        <v>943</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>949</v>
+        <v>609</v>
+      </c>
+      <c r="D402" t="s">
+        <v>82</v>
+      </c>
+      <c r="E402" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" t="s">
-        <v>916</v>
+        <v>1078</v>
       </c>
       <c r="B403" t="s">
-        <v>917</v>
+        <v>1079</v>
       </c>
       <c r="C403" t="s">
-        <v>918</v>
-      </c>
-      <c r="D403" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D403" t="s">
         <v>6</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
-        <v>934</v>
+        <v>1083</v>
       </c>
       <c r="B404" t="s">
-        <v>935</v>
+        <v>1084</v>
       </c>
       <c r="C404" t="s">
-        <v>936</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>6</v>
+        <v>1085</v>
+      </c>
+      <c r="D404" t="s">
+        <v>71</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" t="s">
-        <v>937</v>
+        <v>1070</v>
       </c>
       <c r="B405" t="s">
-        <v>847</v>
+        <v>1070</v>
       </c>
       <c r="C405" t="s">
-        <v>938</v>
-      </c>
-      <c r="D405" s="4" t="s">
-        <v>6</v>
+        <v>1071</v>
+      </c>
+      <c r="D405" t="s">
+        <v>80</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" t="s">
-        <v>922</v>
+        <v>1093</v>
       </c>
       <c r="B406" t="s">
-        <v>923</v>
+        <v>1093</v>
       </c>
       <c r="C406" t="s">
-        <v>924</v>
-      </c>
-      <c r="D406" s="4" t="s">
-        <v>6</v>
+        <v>1094</v>
+      </c>
+      <c r="D406" t="s">
+        <v>71</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" t="s">
-        <v>944</v>
+        <v>1068</v>
       </c>
       <c r="B407" t="s">
-        <v>813</v>
+        <v>1068</v>
       </c>
       <c r="C407" t="s">
-        <v>945</v>
+        <v>1069</v>
       </c>
       <c r="D407" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
-        <v>946</v>
+        <v>1095</v>
       </c>
       <c r="B408" t="s">
-        <v>947</v>
+        <v>1096</v>
       </c>
       <c r="C408" t="s">
-        <v>948</v>
+        <v>1097</v>
       </c>
       <c r="D408" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" t="s">
-        <v>913</v>
+        <v>1074</v>
       </c>
       <c r="B409" t="s">
-        <v>914</v>
+        <v>1074</v>
       </c>
       <c r="C409" t="s">
-        <v>915</v>
-      </c>
-      <c r="D409" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D409" t="s">
         <v>6</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D410" t="s">
+        <v>80</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D411" t="s">
+        <v>82</v>
+      </c>
+      <c r="E411" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D412" t="s">
+        <v>80</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D413" t="s">
+        <v>71</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D414" t="s">
+        <v>80</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D415" t="s">
+        <v>80</v>
+      </c>
+      <c r="E415" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D416" t="s">
+        <v>6</v>
+      </c>
+      <c r="E416" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>939</v>
+      </c>
+      <c r="B417" t="s">
+        <v>9</v>
+      </c>
+      <c r="C417" t="s">
+        <v>940</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>919</v>
+      </c>
+      <c r="B418" t="s">
+        <v>920</v>
+      </c>
+      <c r="C418" t="s">
+        <v>921</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E418" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>928</v>
+      </c>
+      <c r="B419" t="s">
+        <v>929</v>
+      </c>
+      <c r="C419" t="s">
+        <v>930</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E419" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>931</v>
+      </c>
+      <c r="B420" t="s">
+        <v>932</v>
+      </c>
+      <c r="C420" t="s">
+        <v>933</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E420" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>941</v>
+      </c>
+      <c r="B421" t="s">
+        <v>942</v>
+      </c>
+      <c r="C421" t="s">
+        <v>943</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E421" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>916</v>
+      </c>
+      <c r="B422" t="s">
+        <v>917</v>
+      </c>
+      <c r="C422" t="s">
+        <v>918</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E422" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>934</v>
+      </c>
+      <c r="B423" t="s">
+        <v>935</v>
+      </c>
+      <c r="C423" t="s">
+        <v>936</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>937</v>
+      </c>
+      <c r="B424" t="s">
+        <v>847</v>
+      </c>
+      <c r="C424" t="s">
+        <v>938</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>922</v>
+      </c>
+      <c r="B425" t="s">
+        <v>923</v>
+      </c>
+      <c r="C425" t="s">
+        <v>924</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E425" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>944</v>
+      </c>
+      <c r="B426" t="s">
+        <v>813</v>
+      </c>
+      <c r="C426" t="s">
+        <v>945</v>
+      </c>
+      <c r="D426" t="s">
+        <v>82</v>
+      </c>
+      <c r="E426" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>946</v>
+      </c>
+      <c r="B427" t="s">
+        <v>947</v>
+      </c>
+      <c r="C427" t="s">
+        <v>948</v>
+      </c>
+      <c r="D427" t="s">
+        <v>6</v>
+      </c>
+      <c r="E427" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>913</v>
+      </c>
+      <c r="B428" t="s">
+        <v>914</v>
+      </c>
+      <c r="C428" t="s">
+        <v>915</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E428" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
         <v>925</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B429" t="s">
         <v>926</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C429" t="s">
         <v>927</v>
       </c>
-      <c r="D410" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E410" s="4" t="s">
+      <c r="D429" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" s="4" t="s">
         <v>949</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E169">
+  <autoFilter ref="A1:E188">
     <sortState ref="A2:E396">
       <sortCondition ref="E1:E155"/>
     </sortState>
